--- a/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98D3D4-0990-4E79-8B6E-8A0685AAD274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B08E0-0FD4-4EB9-93E7-F6CDC5EC0E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
   <si>
     <t>clubNameEng</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>09966683987</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>D:/Club Images</t>
   </si>
 </sst>
 </file>
@@ -463,6 +469,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,6 +477,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,7 +526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -541,6 +549,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -762,10 +771,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS79"/>
+  <dimension ref="A1:AT79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -779,7 +788,7 @@
     <col min="27" max="31" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +924,11 @@
       <c r="AS1" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1052,8 +1064,9 @@
       <c r="AS2" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT2" s="14"/>
+    </row>
+    <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>95</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>100</v>
       </c>
@@ -1327,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>105</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>110</v>
       </c>
@@ -1601,7 +1614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>115</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>125</v>
       </c>
@@ -2011,8 +2024,11 @@
       <c r="AS9" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AT9" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2037,7 +2053,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2062,7 +2078,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2087,7 +2103,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2112,7 +2128,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2137,7 +2153,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2162,7 +2178,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75B08E0-0FD4-4EB9-93E7-F6CDC5EC0E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CE69C2-7A45-45DB-AC9A-C1626AC06BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
   <si>
     <t>clubNameEng</t>
   </si>
@@ -774,7 +774,7 @@
   <dimension ref="A1:AT79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+      <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1064,9 @@
       <c r="AS2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" s="14"/>
+      <c r="AT2" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -1202,6 +1204,9 @@
       <c r="AS3" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AT3" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -1339,6 +1344,9 @@
       <c r="AS4" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AT4" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -1476,6 +1484,9 @@
       <c r="AS5" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AT5" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
@@ -1613,6 +1624,9 @@
       <c r="AS6" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AT6" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
@@ -1750,6 +1764,9 @@
       <c r="AS7" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="AT7" s="14" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -1886,6 +1903,9 @@
       </c>
       <c r="AS8" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="AT8" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CE69C2-7A45-45DB-AC9A-C1626AC06BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CEB28B-71DA-4D93-AB9F-B3E24BE8383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="142">
   <si>
     <t>clubNameEng</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>clubLogo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>{{clubNameKatakana}}へようこそ。{{city}}の中心にある最高のホストクラブです。贅沢なエンターテイメントを提供します。{{groupName}}が率いるホストは、素晴らしいサービスを提供します。お問い合わせは{{email}}または{{landlineNumber}}まで。</t>
   </si>
   <si>
     <t>googleMap</t>
@@ -526,7 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -536,9 +530,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -771,10 +762,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT79"/>
+  <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,10 +776,10 @@
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="4"/>
     <col min="21" max="21" width="12.5703125" style="4"/>
-    <col min="27" max="31" width="12.5703125" style="4"/>
+    <col min="26" max="30" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,71 +855,68 @@
       <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AR1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -1001,1054 +989,1030 @@
       <c r="X2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="13" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2">
+        <v>5000</v>
+      </c>
+      <c r="AL2">
+        <v>4000</v>
+      </c>
+      <c r="AM2">
+        <v>9000</v>
+      </c>
+      <c r="AN2">
+        <v>5000</v>
+      </c>
+      <c r="AO2">
+        <v>10000</v>
+      </c>
+      <c r="AP2">
+        <v>40</v>
+      </c>
+      <c r="AQ2">
+        <v>25</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1600021</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3">
+        <v>5000</v>
+      </c>
+      <c r="AL3">
+        <v>4000</v>
+      </c>
+      <c r="AM3">
+        <v>9000</v>
+      </c>
+      <c r="AN3">
+        <v>5000</v>
+      </c>
+      <c r="AO3">
+        <v>10000</v>
+      </c>
+      <c r="AP3">
+        <v>40</v>
+      </c>
+      <c r="AQ3">
+        <v>25</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS3" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1600022</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4">
+        <v>5000</v>
+      </c>
+      <c r="AL4">
+        <v>4000</v>
+      </c>
+      <c r="AM4">
+        <v>9000</v>
+      </c>
+      <c r="AN4">
+        <v>5000</v>
+      </c>
+      <c r="AO4">
+        <v>10000</v>
+      </c>
+      <c r="AP4">
+        <v>40</v>
+      </c>
+      <c r="AQ4">
+        <v>25</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1600023</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5">
+        <v>5000</v>
+      </c>
+      <c r="AL5">
+        <v>4000</v>
+      </c>
+      <c r="AM5">
+        <v>9000</v>
+      </c>
+      <c r="AN5">
+        <v>5000</v>
+      </c>
+      <c r="AO5">
+        <v>10000</v>
+      </c>
+      <c r="AP5">
+        <v>40</v>
+      </c>
+      <c r="AQ5">
+        <v>25</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS5" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1600024</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AA6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6">
+        <v>5000</v>
+      </c>
+      <c r="AL6">
+        <v>4000</v>
+      </c>
+      <c r="AM6">
+        <v>9000</v>
+      </c>
+      <c r="AN6">
+        <v>5000</v>
+      </c>
+      <c r="AO6">
+        <v>10000</v>
+      </c>
+      <c r="AP6">
+        <v>40</v>
+      </c>
+      <c r="AQ6">
+        <v>25</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1600025</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK7">
+        <v>5000</v>
+      </c>
+      <c r="AL7">
+        <v>4000</v>
+      </c>
+      <c r="AM7">
+        <v>9000</v>
+      </c>
+      <c r="AN7">
+        <v>5000</v>
+      </c>
+      <c r="AO7">
+        <v>10000</v>
+      </c>
+      <c r="AP7">
+        <v>40</v>
+      </c>
+      <c r="AQ7">
+        <v>25</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS7" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8">
+        <v>5000</v>
+      </c>
+      <c r="AL8">
+        <v>4000</v>
+      </c>
+      <c r="AM8">
+        <v>9000</v>
+      </c>
+      <c r="AN8">
+        <v>5000</v>
+      </c>
+      <c r="AO8">
+        <v>10000</v>
+      </c>
+      <c r="AP8">
+        <v>40</v>
+      </c>
+      <c r="AQ8">
+        <v>25</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS8" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AD9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL2">
+      <c r="AK9">
         <v>5000</v>
       </c>
-      <c r="AM2">
+      <c r="AL9">
         <v>4000</v>
       </c>
-      <c r="AN2">
+      <c r="AM9">
         <v>9000</v>
       </c>
-      <c r="AO2">
+      <c r="AN9">
         <v>5000</v>
       </c>
-      <c r="AP2">
+      <c r="AO9">
         <v>10000</v>
       </c>
-      <c r="AQ2">
+      <c r="AP9">
         <v>40</v>
       </c>
-      <c r="AR2">
+      <c r="AQ9">
         <v>25</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT2" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1600021</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL3">
-        <v>5000</v>
-      </c>
-      <c r="AM3">
-        <v>4000</v>
-      </c>
-      <c r="AN3">
-        <v>9000</v>
-      </c>
-      <c r="AO3">
-        <v>5000</v>
-      </c>
-      <c r="AP3">
-        <v>10000</v>
-      </c>
-      <c r="AQ3">
-        <v>40</v>
-      </c>
-      <c r="AR3">
-        <v>25</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT3" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1600022</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4">
-        <v>5000</v>
-      </c>
-      <c r="AM4">
-        <v>4000</v>
-      </c>
-      <c r="AN4">
-        <v>9000</v>
-      </c>
-      <c r="AO4">
-        <v>5000</v>
-      </c>
-      <c r="AP4">
-        <v>10000</v>
-      </c>
-      <c r="AQ4">
-        <v>40</v>
-      </c>
-      <c r="AR4">
-        <v>25</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT4" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1600023</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL5">
-        <v>5000</v>
-      </c>
-      <c r="AM5">
-        <v>4000</v>
-      </c>
-      <c r="AN5">
-        <v>9000</v>
-      </c>
-      <c r="AO5">
-        <v>5000</v>
-      </c>
-      <c r="AP5">
-        <v>10000</v>
-      </c>
-      <c r="AQ5">
-        <v>40</v>
-      </c>
-      <c r="AR5">
-        <v>25</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT5" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1600024</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL6">
-        <v>5000</v>
-      </c>
-      <c r="AM6">
-        <v>4000</v>
-      </c>
-      <c r="AN6">
-        <v>9000</v>
-      </c>
-      <c r="AO6">
-        <v>5000</v>
-      </c>
-      <c r="AP6">
-        <v>10000</v>
-      </c>
-      <c r="AQ6">
-        <v>40</v>
-      </c>
-      <c r="AR6">
-        <v>25</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT6" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="10">
-        <v>1600025</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL7">
-        <v>5000</v>
-      </c>
-      <c r="AM7">
-        <v>4000</v>
-      </c>
-      <c r="AN7">
-        <v>9000</v>
-      </c>
-      <c r="AO7">
-        <v>5000</v>
-      </c>
-      <c r="AP7">
-        <v>10000</v>
-      </c>
-      <c r="AQ7">
-        <v>40</v>
-      </c>
-      <c r="AR7">
-        <v>25</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT7" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1600026</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL8">
-        <v>5000</v>
-      </c>
-      <c r="AM8">
-        <v>4000</v>
-      </c>
-      <c r="AN8">
-        <v>9000</v>
-      </c>
-      <c r="AO8">
-        <v>5000</v>
-      </c>
-      <c r="AP8">
-        <v>10000</v>
-      </c>
-      <c r="AQ8">
-        <v>40</v>
-      </c>
-      <c r="AR8">
-        <v>25</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1600026</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U9" s="12" t="s">
+      <c r="AR9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS9" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="V9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL9">
-        <v>5000</v>
-      </c>
-      <c r="AM9">
-        <v>4000</v>
-      </c>
-      <c r="AN9">
-        <v>9000</v>
-      </c>
-      <c r="AO9">
-        <v>5000</v>
-      </c>
-      <c r="AP9">
-        <v>10000</v>
-      </c>
-      <c r="AQ9">
-        <v>40</v>
-      </c>
-      <c r="AR9">
-        <v>25</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT9" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2073,7 +2037,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2098,7 +2062,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2123,7 +2087,7 @@
       <c r="V12" s="2"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2148,7 +2112,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2173,7 +2137,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2198,7 +2162,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3801,77 +3765,77 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" display="99HardRockemaill666@gmail.com" xr:uid="{9EE29890-4F75-4E79-B58B-CDD988D2E886}"/>
-    <hyperlink ref="Z2" r:id="rId2" xr:uid="{22D57678-1EAB-4B04-A0D1-C7C6F76E5D90}"/>
-    <hyperlink ref="AF2" r:id="rId3" xr:uid="{30F3C006-E894-4EF5-83B1-2500CCE6A5D2}"/>
-    <hyperlink ref="AG2" r:id="rId4" xr:uid="{311E7B24-7AD4-43B3-97D2-C03BD16B14DD}"/>
-    <hyperlink ref="AH2" r:id="rId5" xr:uid="{462D93DF-C65C-4701-82E1-93D0A5648BB9}"/>
-    <hyperlink ref="AI2" r:id="rId6" xr:uid="{215FD42C-D67B-4D58-ACA7-0FCBF75A9C61}"/>
-    <hyperlink ref="AJ2" r:id="rId7" xr:uid="{2CC482E3-9781-468C-94DB-9CC2FD2DEE2E}"/>
-    <hyperlink ref="AK2" r:id="rId8" xr:uid="{F9E37DC8-F6CE-434E-83D6-FF908103891A}"/>
-    <hyperlink ref="AS2" r:id="rId9" xr:uid="{23D165C6-B605-4D11-B6FC-588FAB8A1298}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{22D57678-1EAB-4B04-A0D1-C7C6F76E5D90}"/>
+    <hyperlink ref="AE2" r:id="rId3" xr:uid="{30F3C006-E894-4EF5-83B1-2500CCE6A5D2}"/>
+    <hyperlink ref="AF2" r:id="rId4" xr:uid="{311E7B24-7AD4-43B3-97D2-C03BD16B14DD}"/>
+    <hyperlink ref="AG2" r:id="rId5" xr:uid="{462D93DF-C65C-4701-82E1-93D0A5648BB9}"/>
+    <hyperlink ref="AH2" r:id="rId6" xr:uid="{215FD42C-D67B-4D58-ACA7-0FCBF75A9C61}"/>
+    <hyperlink ref="AI2" r:id="rId7" xr:uid="{2CC482E3-9781-468C-94DB-9CC2FD2DEE2E}"/>
+    <hyperlink ref="AJ2" r:id="rId8" xr:uid="{F9E37DC8-F6CE-434E-83D6-FF908103891A}"/>
+    <hyperlink ref="AR2" r:id="rId9" xr:uid="{23D165C6-B605-4D11-B6FC-588FAB8A1298}"/>
     <hyperlink ref="V6" r:id="rId10" xr:uid="{9359D4E3-CACA-47A7-9CC2-35C4A9AC7D03}"/>
     <hyperlink ref="V4" r:id="rId11" xr:uid="{2A2B5324-C9C7-4AFA-B5D7-48FD15058547}"/>
     <hyperlink ref="V8" r:id="rId12" xr:uid="{1FB40691-6B58-48B8-9D05-503399CBF80A}"/>
     <hyperlink ref="V7" r:id="rId13" xr:uid="{C97A744D-EDBF-4922-9B48-60832D7B4D50}"/>
     <hyperlink ref="V5" r:id="rId14" xr:uid="{AEDCC47E-0D78-42E4-A3D0-83939C740722}"/>
     <hyperlink ref="V3" r:id="rId15" xr:uid="{1A522A4A-13CC-404D-8ECF-B1B35D94E3F5}"/>
-    <hyperlink ref="Z3" r:id="rId16" xr:uid="{4312661F-67D2-4C5E-964D-9639FB9D53DA}"/>
-    <hyperlink ref="Z4" r:id="rId17" xr:uid="{5B16FEBD-409B-4284-AE00-9879F520D173}"/>
-    <hyperlink ref="Z5" r:id="rId18" xr:uid="{7EDEFECD-4A5E-45B8-BB8A-CD0E0946D98F}"/>
-    <hyperlink ref="Z6" r:id="rId19" xr:uid="{21387ACF-3007-4E0D-8F57-CDCA51BE542D}"/>
-    <hyperlink ref="Z7" r:id="rId20" xr:uid="{2C91C5B8-446A-4F98-8FD0-0713A4C7421E}"/>
-    <hyperlink ref="Z8" r:id="rId21" xr:uid="{60BDA731-F231-451C-B1E1-8122B9A07416}"/>
-    <hyperlink ref="AF3" r:id="rId22" xr:uid="{A1D3C90C-7C12-4EC5-A83C-200724407F65}"/>
-    <hyperlink ref="AF4" r:id="rId23" xr:uid="{A95AFEA4-C5FF-4308-864F-8E300FAF0FE9}"/>
-    <hyperlink ref="AF5" r:id="rId24" xr:uid="{22EF5882-90F5-4233-92EC-874E08B74DE9}"/>
-    <hyperlink ref="AF6" r:id="rId25" xr:uid="{16CA8B98-568A-4473-9B70-4CBA5E28AE61}"/>
-    <hyperlink ref="AF7" r:id="rId26" xr:uid="{2AA4F4CB-77E6-42A4-AE0C-FAEB20EB19BA}"/>
-    <hyperlink ref="AF8" r:id="rId27" xr:uid="{0EF0FCE8-C442-4A49-9A70-1C7172BAC725}"/>
-    <hyperlink ref="AF9" r:id="rId28" xr:uid="{70B00255-B7B0-47A6-A3A8-9D8C14A0144C}"/>
-    <hyperlink ref="AG3" r:id="rId29" xr:uid="{B60AE58D-E8A0-4F37-A1DF-8CAE93D8CFBF}"/>
-    <hyperlink ref="AG4" r:id="rId30" xr:uid="{C308F4A6-ED27-41F4-90FD-0073C6EA2DAF}"/>
-    <hyperlink ref="AG5" r:id="rId31" xr:uid="{6694FBAA-7B84-4724-9DDD-CFD621200630}"/>
-    <hyperlink ref="AG6" r:id="rId32" xr:uid="{21F804D6-6090-4119-858A-2E12C2F4E102}"/>
-    <hyperlink ref="AG7" r:id="rId33" xr:uid="{877E1122-AC9E-4DB3-84E0-93A3A4DE8F1E}"/>
-    <hyperlink ref="AG8" r:id="rId34" xr:uid="{139BD8CB-10C3-4CB7-B48E-FAB1D00F19DB}"/>
-    <hyperlink ref="AG9" r:id="rId35" xr:uid="{FC4296D4-304B-4E12-A2BB-91B3E7C9CD1B}"/>
-    <hyperlink ref="AH3" r:id="rId36" xr:uid="{78D38C81-3636-4FDE-B8EB-0DEF2E09B2C0}"/>
-    <hyperlink ref="AH4" r:id="rId37" xr:uid="{B71D0CF8-BF81-49D3-8706-C57B4D26701A}"/>
-    <hyperlink ref="AH5" r:id="rId38" xr:uid="{C54515BC-4766-4E81-ADA3-72E1367E89EB}"/>
-    <hyperlink ref="AH6" r:id="rId39" xr:uid="{11E02B18-0AFF-433F-BCDC-C809D8635B63}"/>
-    <hyperlink ref="AH7" r:id="rId40" xr:uid="{1972EE69-EF2A-4166-8083-F42C884907CD}"/>
-    <hyperlink ref="AH8" r:id="rId41" xr:uid="{86BDAD11-F62C-4882-AED5-275E73419270}"/>
-    <hyperlink ref="AH9" r:id="rId42" xr:uid="{C9AC5D8F-2966-4603-8597-715A0788BD59}"/>
-    <hyperlink ref="AI3" r:id="rId43" xr:uid="{424891AC-4EEB-4E07-ABA9-718B575F42FA}"/>
-    <hyperlink ref="AI4" r:id="rId44" xr:uid="{F27F149B-D5BD-4B9B-9B73-C508F6B18623}"/>
-    <hyperlink ref="AI5" r:id="rId45" xr:uid="{C777DFA5-797D-4A93-9DB5-5682F02B535A}"/>
-    <hyperlink ref="AI6" r:id="rId46" xr:uid="{721E1A15-264F-44DB-AAF2-3D15B2DFDF9C}"/>
-    <hyperlink ref="AI7" r:id="rId47" xr:uid="{156284CF-760F-4820-9507-493220156796}"/>
-    <hyperlink ref="AI8" r:id="rId48" xr:uid="{3B09CF5A-F3A1-47D8-A4C7-95927B938F23}"/>
-    <hyperlink ref="AI9" r:id="rId49" xr:uid="{113F7CF2-18F0-424B-B52B-04D2074B847D}"/>
-    <hyperlink ref="AJ3" r:id="rId50" xr:uid="{58416803-8DF1-4D34-8B80-946D43CBBAEA}"/>
-    <hyperlink ref="AJ4" r:id="rId51" xr:uid="{3349D37C-FD9F-4E1B-81B5-DA20433679B9}"/>
-    <hyperlink ref="AJ5" r:id="rId52" xr:uid="{CB0B1FA9-49C7-4453-B16C-E7EF6919D13C}"/>
-    <hyperlink ref="AJ6" r:id="rId53" xr:uid="{DCC3FF5B-1CD3-42AB-8C71-662185AD31AA}"/>
-    <hyperlink ref="AJ7" r:id="rId54" xr:uid="{BCDCD13D-7DB2-483B-859D-DDBAFECFEDC4}"/>
-    <hyperlink ref="AJ8" r:id="rId55" xr:uid="{C5A2C1FF-DA7C-48F6-ABC6-5CE7398716C2}"/>
-    <hyperlink ref="AJ9" r:id="rId56" xr:uid="{A040E809-93D5-4DB5-8C27-F89FE983F4F7}"/>
-    <hyperlink ref="AK3" r:id="rId57" xr:uid="{B6AA900B-692D-47B2-AD61-D3441CE855D0}"/>
-    <hyperlink ref="AK4" r:id="rId58" xr:uid="{1C584AD9-072D-47B6-9850-2B2B13566F8E}"/>
-    <hyperlink ref="AK5" r:id="rId59" xr:uid="{51A3EEF7-DF23-49EF-A700-A3064AD366F5}"/>
-    <hyperlink ref="AK6" r:id="rId60" xr:uid="{DA530A75-1AA8-4F93-96B2-B20620563DA7}"/>
-    <hyperlink ref="AK7" r:id="rId61" xr:uid="{4E74BD9C-CE85-4027-B8DA-6C5DD385830A}"/>
-    <hyperlink ref="AK8" r:id="rId62" xr:uid="{93ED6EFE-9768-43BD-902F-FF54100E7596}"/>
-    <hyperlink ref="AK9" r:id="rId63" xr:uid="{B80D7872-A434-48F5-AC56-49B4237BEF6F}"/>
-    <hyperlink ref="AS3" r:id="rId64" xr:uid="{F0D560AE-7837-4386-8871-C478BD8B2D15}"/>
-    <hyperlink ref="AS4" r:id="rId65" xr:uid="{0E63DCCD-0B14-453E-8251-1DF937F6C2ED}"/>
-    <hyperlink ref="AS5" r:id="rId66" xr:uid="{40EFF1C6-078A-4D36-9605-3AC4A800C3E9}"/>
-    <hyperlink ref="AS6" r:id="rId67" xr:uid="{F4E12EEC-DB4F-476E-81B8-8C46204F131E}"/>
-    <hyperlink ref="AS7" r:id="rId68" xr:uid="{3BDA4DE9-B4BA-4069-839D-1980F8FDAFD6}"/>
-    <hyperlink ref="AS8" r:id="rId69" xr:uid="{FF2C7332-D737-49DD-B530-0ADAE0CE32CF}"/>
-    <hyperlink ref="AS9" r:id="rId70" xr:uid="{576FCFAA-B3A2-485E-B43D-FAF7551AD9BA}"/>
+    <hyperlink ref="Y3" r:id="rId16" xr:uid="{4312661F-67D2-4C5E-964D-9639FB9D53DA}"/>
+    <hyperlink ref="Y4" r:id="rId17" xr:uid="{5B16FEBD-409B-4284-AE00-9879F520D173}"/>
+    <hyperlink ref="Y5" r:id="rId18" xr:uid="{7EDEFECD-4A5E-45B8-BB8A-CD0E0946D98F}"/>
+    <hyperlink ref="Y6" r:id="rId19" xr:uid="{21387ACF-3007-4E0D-8F57-CDCA51BE542D}"/>
+    <hyperlink ref="Y7" r:id="rId20" xr:uid="{2C91C5B8-446A-4F98-8FD0-0713A4C7421E}"/>
+    <hyperlink ref="Y8" r:id="rId21" xr:uid="{60BDA731-F231-451C-B1E1-8122B9A07416}"/>
+    <hyperlink ref="AE3" r:id="rId22" xr:uid="{A1D3C90C-7C12-4EC5-A83C-200724407F65}"/>
+    <hyperlink ref="AE4" r:id="rId23" xr:uid="{A95AFEA4-C5FF-4308-864F-8E300FAF0FE9}"/>
+    <hyperlink ref="AE5" r:id="rId24" xr:uid="{22EF5882-90F5-4233-92EC-874E08B74DE9}"/>
+    <hyperlink ref="AE6" r:id="rId25" xr:uid="{16CA8B98-568A-4473-9B70-4CBA5E28AE61}"/>
+    <hyperlink ref="AE7" r:id="rId26" xr:uid="{2AA4F4CB-77E6-42A4-AE0C-FAEB20EB19BA}"/>
+    <hyperlink ref="AE8" r:id="rId27" xr:uid="{0EF0FCE8-C442-4A49-9A70-1C7172BAC725}"/>
+    <hyperlink ref="AE9" r:id="rId28" xr:uid="{70B00255-B7B0-47A6-A3A8-9D8C14A0144C}"/>
+    <hyperlink ref="AF3" r:id="rId29" xr:uid="{B60AE58D-E8A0-4F37-A1DF-8CAE93D8CFBF}"/>
+    <hyperlink ref="AF4" r:id="rId30" xr:uid="{C308F4A6-ED27-41F4-90FD-0073C6EA2DAF}"/>
+    <hyperlink ref="AF5" r:id="rId31" xr:uid="{6694FBAA-7B84-4724-9DDD-CFD621200630}"/>
+    <hyperlink ref="AF6" r:id="rId32" xr:uid="{21F804D6-6090-4119-858A-2E12C2F4E102}"/>
+    <hyperlink ref="AF7" r:id="rId33" xr:uid="{877E1122-AC9E-4DB3-84E0-93A3A4DE8F1E}"/>
+    <hyperlink ref="AF8" r:id="rId34" xr:uid="{139BD8CB-10C3-4CB7-B48E-FAB1D00F19DB}"/>
+    <hyperlink ref="AF9" r:id="rId35" xr:uid="{FC4296D4-304B-4E12-A2BB-91B3E7C9CD1B}"/>
+    <hyperlink ref="AG3" r:id="rId36" xr:uid="{78D38C81-3636-4FDE-B8EB-0DEF2E09B2C0}"/>
+    <hyperlink ref="AG4" r:id="rId37" xr:uid="{B71D0CF8-BF81-49D3-8706-C57B4D26701A}"/>
+    <hyperlink ref="AG5" r:id="rId38" xr:uid="{C54515BC-4766-4E81-ADA3-72E1367E89EB}"/>
+    <hyperlink ref="AG6" r:id="rId39" xr:uid="{11E02B18-0AFF-433F-BCDC-C809D8635B63}"/>
+    <hyperlink ref="AG7" r:id="rId40" xr:uid="{1972EE69-EF2A-4166-8083-F42C884907CD}"/>
+    <hyperlink ref="AG8" r:id="rId41" xr:uid="{86BDAD11-F62C-4882-AED5-275E73419270}"/>
+    <hyperlink ref="AG9" r:id="rId42" xr:uid="{C9AC5D8F-2966-4603-8597-715A0788BD59}"/>
+    <hyperlink ref="AH3" r:id="rId43" xr:uid="{424891AC-4EEB-4E07-ABA9-718B575F42FA}"/>
+    <hyperlink ref="AH4" r:id="rId44" xr:uid="{F27F149B-D5BD-4B9B-9B73-C508F6B18623}"/>
+    <hyperlink ref="AH5" r:id="rId45" xr:uid="{C777DFA5-797D-4A93-9DB5-5682F02B535A}"/>
+    <hyperlink ref="AH6" r:id="rId46" xr:uid="{721E1A15-264F-44DB-AAF2-3D15B2DFDF9C}"/>
+    <hyperlink ref="AH7" r:id="rId47" xr:uid="{156284CF-760F-4820-9507-493220156796}"/>
+    <hyperlink ref="AH8" r:id="rId48" xr:uid="{3B09CF5A-F3A1-47D8-A4C7-95927B938F23}"/>
+    <hyperlink ref="AH9" r:id="rId49" xr:uid="{113F7CF2-18F0-424B-B52B-04D2074B847D}"/>
+    <hyperlink ref="AI3" r:id="rId50" xr:uid="{58416803-8DF1-4D34-8B80-946D43CBBAEA}"/>
+    <hyperlink ref="AI4" r:id="rId51" xr:uid="{3349D37C-FD9F-4E1B-81B5-DA20433679B9}"/>
+    <hyperlink ref="AI5" r:id="rId52" xr:uid="{CB0B1FA9-49C7-4453-B16C-E7EF6919D13C}"/>
+    <hyperlink ref="AI6" r:id="rId53" xr:uid="{DCC3FF5B-1CD3-42AB-8C71-662185AD31AA}"/>
+    <hyperlink ref="AI7" r:id="rId54" xr:uid="{BCDCD13D-7DB2-483B-859D-DDBAFECFEDC4}"/>
+    <hyperlink ref="AI8" r:id="rId55" xr:uid="{C5A2C1FF-DA7C-48F6-ABC6-5CE7398716C2}"/>
+    <hyperlink ref="AI9" r:id="rId56" xr:uid="{A040E809-93D5-4DB5-8C27-F89FE983F4F7}"/>
+    <hyperlink ref="AJ3" r:id="rId57" xr:uid="{B6AA900B-692D-47B2-AD61-D3441CE855D0}"/>
+    <hyperlink ref="AJ4" r:id="rId58" xr:uid="{1C584AD9-072D-47B6-9850-2B2B13566F8E}"/>
+    <hyperlink ref="AJ5" r:id="rId59" xr:uid="{51A3EEF7-DF23-49EF-A700-A3064AD366F5}"/>
+    <hyperlink ref="AJ6" r:id="rId60" xr:uid="{DA530A75-1AA8-4F93-96B2-B20620563DA7}"/>
+    <hyperlink ref="AJ7" r:id="rId61" xr:uid="{4E74BD9C-CE85-4027-B8DA-6C5DD385830A}"/>
+    <hyperlink ref="AJ8" r:id="rId62" xr:uid="{93ED6EFE-9768-43BD-902F-FF54100E7596}"/>
+    <hyperlink ref="AJ9" r:id="rId63" xr:uid="{B80D7872-A434-48F5-AC56-49B4237BEF6F}"/>
+    <hyperlink ref="AR3" r:id="rId64" xr:uid="{F0D560AE-7837-4386-8871-C478BD8B2D15}"/>
+    <hyperlink ref="AR4" r:id="rId65" xr:uid="{0E63DCCD-0B14-453E-8251-1DF937F6C2ED}"/>
+    <hyperlink ref="AR5" r:id="rId66" xr:uid="{40EFF1C6-078A-4D36-9605-3AC4A800C3E9}"/>
+    <hyperlink ref="AR6" r:id="rId67" xr:uid="{F4E12EEC-DB4F-476E-81B8-8C46204F131E}"/>
+    <hyperlink ref="AR7" r:id="rId68" xr:uid="{3BDA4DE9-B4BA-4069-839D-1980F8FDAFD6}"/>
+    <hyperlink ref="AR8" r:id="rId69" xr:uid="{FF2C7332-D737-49DD-B530-0ADAE0CE32CF}"/>
+    <hyperlink ref="AR9" r:id="rId70" xr:uid="{576FCFAA-B3A2-485E-B43D-FAF7551AD9BA}"/>
     <hyperlink ref="V9" r:id="rId71" xr:uid="{F191D211-9F11-4D96-947B-D8FDEEB10B11}"/>
-    <hyperlink ref="Z9" r:id="rId72" xr:uid="{9AD55243-CD84-4916-800B-59B1CB29B0BE}"/>
+    <hyperlink ref="Y9" r:id="rId72" xr:uid="{9AD55243-CD84-4916-800B-59B1CB29B0BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId73"/>

--- a/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CEB28B-71DA-4D93-AB9F-B3E24BE8383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E80DC7-A819-4655-9BC8-6B8BC9F60EF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="183">
   <si>
     <t>clubNameEng</t>
   </si>
@@ -61,9 +62,6 @@
     <t>kycFileLocation</t>
   </si>
   <si>
-    <t>D:/Web Automations/cypress/fixtures/Files/img1.jpg</t>
-  </si>
-  <si>
     <t>businessFileLocation</t>
   </si>
   <si>
@@ -85,18 +83,12 @@
     <t xml:space="preserve">1丁− 目 </t>
   </si>
   <si>
-    <t>番地号、1</t>
-  </si>
-  <si>
     <t>サーフグループ株式会社</t>
   </si>
   <si>
     <t>新宿区1</t>
   </si>
   <si>
-    <t>山本 花子</t>
-  </si>
-  <si>
     <t>レイスクラブ</t>
   </si>
   <si>
@@ -136,9 +128,6 @@
     <t>99Momentemaill666@gmail.com</t>
   </si>
   <si>
-    <t>09966683981</t>
-  </si>
-  <si>
     <t>clubBanner</t>
   </si>
   <si>
@@ -325,9 +314,6 @@
     <t>Radiance Group</t>
   </si>
   <si>
-    <t>番地号、2</t>
-  </si>
-  <si>
     <t>99RadianceEmail2@gmail.com</t>
   </si>
   <si>
@@ -340,9 +326,6 @@
     <t>Zenith Group</t>
   </si>
   <si>
-    <t>番地号、3</t>
-  </si>
-  <si>
     <t>99ZenithEmail3@gmail.com</t>
   </si>
   <si>
@@ -355,9 +338,6 @@
     <t>Aurora Group</t>
   </si>
   <si>
-    <t>番地号、4</t>
-  </si>
-  <si>
     <t>99AuroraEmail4@gmail.com</t>
   </si>
   <si>
@@ -370,9 +350,6 @@
     <t>Stellar Group</t>
   </si>
   <si>
-    <t>番地号、5</t>
-  </si>
-  <si>
     <t>99StellarEmail5@gmail.com</t>
   </si>
   <si>
@@ -385,9 +362,6 @@
     <t>Nebula Group</t>
   </si>
   <si>
-    <t>番地号、6</t>
-  </si>
-  <si>
     <t>99NebulaEmail6@gmail.com</t>
   </si>
   <si>
@@ -421,38 +395,188 @@
     <t>09012333338</t>
   </si>
   <si>
-    <t>09966683988</t>
-  </si>
-  <si>
-    <t>09966683982</t>
-  </si>
-  <si>
-    <t>09966683983</t>
-  </si>
-  <si>
-    <t>09966683984</t>
-  </si>
-  <si>
-    <t>09966683985</t>
-  </si>
-  <si>
-    <t>09966683986</t>
-  </si>
-  <si>
-    <t>09966683987</t>
-  </si>
-  <si>
     <t>gallery</t>
   </si>
   <si>
     <t>D:/Club Images</t>
+  </si>
+  <si>
+    <t>Elegant Night</t>
+  </si>
+  <si>
+    <t>エレガントナイト</t>
+  </si>
+  <si>
+    <t>Golden Crown</t>
+  </si>
+  <si>
+    <t>ゴールデンクラウン</t>
+  </si>
+  <si>
+    <t>Starlight Hosts</t>
+  </si>
+  <si>
+    <t>スターライトホスト</t>
+  </si>
+  <si>
+    <t>Royal Palace</t>
+  </si>
+  <si>
+    <t>ロイヤルパレス</t>
+  </si>
+  <si>
+    <t>Diamond Lounge</t>
+  </si>
+  <si>
+    <t>ダイヤモンドラウンジ</t>
+  </si>
+  <si>
+    <t>09012333339</t>
+  </si>
+  <si>
+    <t>09012333340</t>
+  </si>
+  <si>
+    <t>09012333341</t>
+  </si>
+  <si>
+    <t>09012333342</t>
+  </si>
+  <si>
+    <t>09012333343</t>
+  </si>
+  <si>
+    <t>新宿区2</t>
+  </si>
+  <si>
+    <t>新宿区3</t>
+  </si>
+  <si>
+    <t>新宿区4</t>
+  </si>
+  <si>
+    <t>新宿区5</t>
+  </si>
+  <si>
+    <t>新宿区6</t>
+  </si>
+  <si>
+    <t>elegant_night@example.com</t>
+  </si>
+  <si>
+    <t>golden_crown@example.com</t>
+  </si>
+  <si>
+    <t>starlight_hosts@example.com</t>
+  </si>
+  <si>
+    <t>royal_palace@example.com</t>
+  </si>
+  <si>
+    <t>diamond_lounge@example.com</t>
+  </si>
+  <si>
+    <t>番地号10</t>
+  </si>
+  <si>
+    <t>番地号1</t>
+  </si>
+  <si>
+    <t>番地号2</t>
+  </si>
+  <si>
+    <t>番地号3</t>
+  </si>
+  <si>
+    <t>番地号4</t>
+  </si>
+  <si>
+    <t>番地号5</t>
+  </si>
+  <si>
+    <t>番地号6</t>
+  </si>
+  <si>
+    <t>番地号7</t>
+  </si>
+  <si>
+    <t>番地号8</t>
+  </si>
+  <si>
+    <t>番地号9</t>
+  </si>
+  <si>
+    <t>番地号11</t>
+  </si>
+  <si>
+    <t>番地号12</t>
+  </si>
+  <si>
+    <t>番地号13</t>
+  </si>
+  <si>
+    <t>09066683981</t>
+  </si>
+  <si>
+    <t>09066683982</t>
+  </si>
+  <si>
+    <t>09066683988</t>
+  </si>
+  <si>
+    <t>09066683986</t>
+  </si>
+  <si>
+    <t>09066683983</t>
+  </si>
+  <si>
+    <t>09066683984</t>
+  </si>
+  <si>
+    <t>09066683985</t>
+  </si>
+  <si>
+    <t>09066683987</t>
+  </si>
+  <si>
+    <t>09066683989</t>
+  </si>
+  <si>
+    <t>09066683990</t>
+  </si>
+  <si>
+    <t>09066683991</t>
+  </si>
+  <si>
+    <t>09066683992</t>
+  </si>
+  <si>
+    <t>09066683999</t>
+  </si>
+  <si>
+    <t>ヤマモト ハナコ</t>
+  </si>
+  <si>
+    <t>D:/Web Automations/cypress/fixtures/Files/kyc.pdf</t>
+  </si>
+  <si>
+    <t>NebulaEmail@example.com</t>
+  </si>
+  <si>
+    <t>Platinum Lounge</t>
+  </si>
+  <si>
+    <t>platinum_lounge@example.com</t>
+  </si>
+  <si>
+    <t>ka1045018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -496,6 +620,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3E3E3E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,7 +659,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -541,6 +680,11 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -762,10 +906,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS79"/>
+  <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -787,10 +931,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -820,210 +964,210 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="U1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="AR1" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <v>1600021</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>24</v>
+      <c r="N2" t="s">
+        <v>177</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>15</v>
+        <v>178</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK2">
         <v>5000</v>
@@ -1047,120 +1191,120 @@
         <v>25</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I3" s="9">
         <v>1600021</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK3">
         <v>5000</v>
@@ -1184,120 +1328,120 @@
         <v>25</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS3" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I4" s="9">
         <v>1600022</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK4">
         <v>5000</v>
@@ -1321,120 +1465,120 @@
         <v>25</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS4" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>106</v>
+        <v>92</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I5" s="9">
         <v>1600023</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AE5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK5">
         <v>5000</v>
@@ -1458,120 +1602,120 @@
         <v>25</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS5" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>111</v>
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I6" s="9">
         <v>1600024</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK6">
         <v>5000</v>
@@ -1595,120 +1739,120 @@
         <v>25</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I7" s="9">
         <v>1600025</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK7">
         <v>5000</v>
@@ -1732,120 +1876,120 @@
         <v>25</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS7" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>121</v>
+        <v>92</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I8" s="9">
         <v>1600026</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="AE8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK8">
         <v>5000</v>
@@ -1869,120 +2013,120 @@
         <v>25</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AS8" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="I9" s="9">
         <v>1600026</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AE9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AK9">
         <v>5000</v>
@@ -2006,161 +2150,833 @@
         <v>25</v>
       </c>
       <c r="AR9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS9" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK10">
+        <v>5000</v>
+      </c>
+      <c r="AL10">
+        <v>4000</v>
+      </c>
+      <c r="AM10">
+        <v>9000</v>
+      </c>
+      <c r="AN10">
+        <v>5000</v>
+      </c>
+      <c r="AO10">
+        <v>10000</v>
+      </c>
+      <c r="AP10">
+        <v>40</v>
+      </c>
+      <c r="AQ10">
+        <v>25</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK11">
+        <v>5000</v>
+      </c>
+      <c r="AL11">
+        <v>4000</v>
+      </c>
+      <c r="AM11">
+        <v>9000</v>
+      </c>
+      <c r="AN11">
+        <v>5000</v>
+      </c>
+      <c r="AO11">
+        <v>10000</v>
+      </c>
+      <c r="AP11">
+        <v>40</v>
+      </c>
+      <c r="AQ11">
+        <v>25</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS11" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AS9" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="3"/>
+      <c r="AD12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK12">
+        <v>5000</v>
+      </c>
+      <c r="AL12">
+        <v>4000</v>
+      </c>
+      <c r="AM12">
+        <v>9000</v>
+      </c>
+      <c r="AN12">
+        <v>5000</v>
+      </c>
+      <c r="AO12">
+        <v>10000</v>
+      </c>
+      <c r="AP12">
+        <v>40</v>
+      </c>
+      <c r="AQ12">
+        <v>25</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="3"/>
+      <c r="A13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK13">
+        <v>5000</v>
+      </c>
+      <c r="AL13">
+        <v>4000</v>
+      </c>
+      <c r="AM13">
+        <v>9000</v>
+      </c>
+      <c r="AN13">
+        <v>5000</v>
+      </c>
+      <c r="AO13">
+        <v>10000</v>
+      </c>
+      <c r="AP13">
+        <v>40</v>
+      </c>
+      <c r="AQ13">
+        <v>25</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="3"/>
+      <c r="A14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK14">
+        <v>5000</v>
+      </c>
+      <c r="AL14">
+        <v>4000</v>
+      </c>
+      <c r="AM14">
+        <v>9000</v>
+      </c>
+      <c r="AN14">
+        <v>5000</v>
+      </c>
+      <c r="AO14">
+        <v>10000</v>
+      </c>
+      <c r="AP14">
+        <v>40</v>
+      </c>
+      <c r="AQ14">
+        <v>25</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="3"/>
+      <c r="A15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1600026</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15">
+        <v>5000</v>
+      </c>
+      <c r="AL15">
+        <v>4000</v>
+      </c>
+      <c r="AM15">
+        <v>9000</v>
+      </c>
+      <c r="AN15">
+        <v>5000</v>
+      </c>
+      <c r="AO15">
+        <v>10000</v>
+      </c>
+      <c r="AP15">
+        <v>40</v>
+      </c>
+      <c r="AQ15">
+        <v>25</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS15" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -3466,7 +4282,6 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3487,357 +4302,135 @@
       <c r="V68" s="2"/>
       <c r="W68" s="3"/>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" display="99HardRockemaill666@gmail.com" xr:uid="{9EE29890-4F75-4E79-B58B-CDD988D2E886}"/>
-    <hyperlink ref="Y2" r:id="rId2" xr:uid="{22D57678-1EAB-4B04-A0D1-C7C6F76E5D90}"/>
-    <hyperlink ref="AE2" r:id="rId3" xr:uid="{30F3C006-E894-4EF5-83B1-2500CCE6A5D2}"/>
-    <hyperlink ref="AF2" r:id="rId4" xr:uid="{311E7B24-7AD4-43B3-97D2-C03BD16B14DD}"/>
-    <hyperlink ref="AG2" r:id="rId5" xr:uid="{462D93DF-C65C-4701-82E1-93D0A5648BB9}"/>
-    <hyperlink ref="AH2" r:id="rId6" xr:uid="{215FD42C-D67B-4D58-ACA7-0FCBF75A9C61}"/>
-    <hyperlink ref="AI2" r:id="rId7" xr:uid="{2CC482E3-9781-468C-94DB-9CC2FD2DEE2E}"/>
-    <hyperlink ref="AJ2" r:id="rId8" xr:uid="{F9E37DC8-F6CE-434E-83D6-FF908103891A}"/>
-    <hyperlink ref="AR2" r:id="rId9" xr:uid="{23D165C6-B605-4D11-B6FC-588FAB8A1298}"/>
-    <hyperlink ref="V6" r:id="rId10" xr:uid="{9359D4E3-CACA-47A7-9CC2-35C4A9AC7D03}"/>
-    <hyperlink ref="V4" r:id="rId11" xr:uid="{2A2B5324-C9C7-4AFA-B5D7-48FD15058547}"/>
-    <hyperlink ref="V8" r:id="rId12" xr:uid="{1FB40691-6B58-48B8-9D05-503399CBF80A}"/>
-    <hyperlink ref="V7" r:id="rId13" xr:uid="{C97A744D-EDBF-4922-9B48-60832D7B4D50}"/>
-    <hyperlink ref="V5" r:id="rId14" xr:uid="{AEDCC47E-0D78-42E4-A3D0-83939C740722}"/>
-    <hyperlink ref="V3" r:id="rId15" xr:uid="{1A522A4A-13CC-404D-8ECF-B1B35D94E3F5}"/>
-    <hyperlink ref="Y3" r:id="rId16" xr:uid="{4312661F-67D2-4C5E-964D-9639FB9D53DA}"/>
-    <hyperlink ref="Y4" r:id="rId17" xr:uid="{5B16FEBD-409B-4284-AE00-9879F520D173}"/>
-    <hyperlink ref="Y5" r:id="rId18" xr:uid="{7EDEFECD-4A5E-45B8-BB8A-CD0E0946D98F}"/>
-    <hyperlink ref="Y6" r:id="rId19" xr:uid="{21387ACF-3007-4E0D-8F57-CDCA51BE542D}"/>
-    <hyperlink ref="Y7" r:id="rId20" xr:uid="{2C91C5B8-446A-4F98-8FD0-0713A4C7421E}"/>
-    <hyperlink ref="Y8" r:id="rId21" xr:uid="{60BDA731-F231-451C-B1E1-8122B9A07416}"/>
-    <hyperlink ref="AE3" r:id="rId22" xr:uid="{A1D3C90C-7C12-4EC5-A83C-200724407F65}"/>
-    <hyperlink ref="AE4" r:id="rId23" xr:uid="{A95AFEA4-C5FF-4308-864F-8E300FAF0FE9}"/>
-    <hyperlink ref="AE5" r:id="rId24" xr:uid="{22EF5882-90F5-4233-92EC-874E08B74DE9}"/>
-    <hyperlink ref="AE6" r:id="rId25" xr:uid="{16CA8B98-568A-4473-9B70-4CBA5E28AE61}"/>
-    <hyperlink ref="AE7" r:id="rId26" xr:uid="{2AA4F4CB-77E6-42A4-AE0C-FAEB20EB19BA}"/>
-    <hyperlink ref="AE8" r:id="rId27" xr:uid="{0EF0FCE8-C442-4A49-9A70-1C7172BAC725}"/>
-    <hyperlink ref="AE9" r:id="rId28" xr:uid="{70B00255-B7B0-47A6-A3A8-9D8C14A0144C}"/>
-    <hyperlink ref="AF3" r:id="rId29" xr:uid="{B60AE58D-E8A0-4F37-A1DF-8CAE93D8CFBF}"/>
-    <hyperlink ref="AF4" r:id="rId30" xr:uid="{C308F4A6-ED27-41F4-90FD-0073C6EA2DAF}"/>
-    <hyperlink ref="AF5" r:id="rId31" xr:uid="{6694FBAA-7B84-4724-9DDD-CFD621200630}"/>
-    <hyperlink ref="AF6" r:id="rId32" xr:uid="{21F804D6-6090-4119-858A-2E12C2F4E102}"/>
-    <hyperlink ref="AF7" r:id="rId33" xr:uid="{877E1122-AC9E-4DB3-84E0-93A3A4DE8F1E}"/>
-    <hyperlink ref="AF8" r:id="rId34" xr:uid="{139BD8CB-10C3-4CB7-B48E-FAB1D00F19DB}"/>
-    <hyperlink ref="AF9" r:id="rId35" xr:uid="{FC4296D4-304B-4E12-A2BB-91B3E7C9CD1B}"/>
-    <hyperlink ref="AG3" r:id="rId36" xr:uid="{78D38C81-3636-4FDE-B8EB-0DEF2E09B2C0}"/>
-    <hyperlink ref="AG4" r:id="rId37" xr:uid="{B71D0CF8-BF81-49D3-8706-C57B4D26701A}"/>
-    <hyperlink ref="AG5" r:id="rId38" xr:uid="{C54515BC-4766-4E81-ADA3-72E1367E89EB}"/>
-    <hyperlink ref="AG6" r:id="rId39" xr:uid="{11E02B18-0AFF-433F-BCDC-C809D8635B63}"/>
-    <hyperlink ref="AG7" r:id="rId40" xr:uid="{1972EE69-EF2A-4166-8083-F42C884907CD}"/>
-    <hyperlink ref="AG8" r:id="rId41" xr:uid="{86BDAD11-F62C-4882-AED5-275E73419270}"/>
-    <hyperlink ref="AG9" r:id="rId42" xr:uid="{C9AC5D8F-2966-4603-8597-715A0788BD59}"/>
-    <hyperlink ref="AH3" r:id="rId43" xr:uid="{424891AC-4EEB-4E07-ABA9-718B575F42FA}"/>
-    <hyperlink ref="AH4" r:id="rId44" xr:uid="{F27F149B-D5BD-4B9B-9B73-C508F6B18623}"/>
-    <hyperlink ref="AH5" r:id="rId45" xr:uid="{C777DFA5-797D-4A93-9DB5-5682F02B535A}"/>
-    <hyperlink ref="AH6" r:id="rId46" xr:uid="{721E1A15-264F-44DB-AAF2-3D15B2DFDF9C}"/>
-    <hyperlink ref="AH7" r:id="rId47" xr:uid="{156284CF-760F-4820-9507-493220156796}"/>
-    <hyperlink ref="AH8" r:id="rId48" xr:uid="{3B09CF5A-F3A1-47D8-A4C7-95927B938F23}"/>
-    <hyperlink ref="AH9" r:id="rId49" xr:uid="{113F7CF2-18F0-424B-B52B-04D2074B847D}"/>
-    <hyperlink ref="AI3" r:id="rId50" xr:uid="{58416803-8DF1-4D34-8B80-946D43CBBAEA}"/>
-    <hyperlink ref="AI4" r:id="rId51" xr:uid="{3349D37C-FD9F-4E1B-81B5-DA20433679B9}"/>
-    <hyperlink ref="AI5" r:id="rId52" xr:uid="{CB0B1FA9-49C7-4453-B16C-E7EF6919D13C}"/>
-    <hyperlink ref="AI6" r:id="rId53" xr:uid="{DCC3FF5B-1CD3-42AB-8C71-662185AD31AA}"/>
-    <hyperlink ref="AI7" r:id="rId54" xr:uid="{BCDCD13D-7DB2-483B-859D-DDBAFECFEDC4}"/>
-    <hyperlink ref="AI8" r:id="rId55" xr:uid="{C5A2C1FF-DA7C-48F6-ABC6-5CE7398716C2}"/>
-    <hyperlink ref="AI9" r:id="rId56" xr:uid="{A040E809-93D5-4DB5-8C27-F89FE983F4F7}"/>
-    <hyperlink ref="AJ3" r:id="rId57" xr:uid="{B6AA900B-692D-47B2-AD61-D3441CE855D0}"/>
-    <hyperlink ref="AJ4" r:id="rId58" xr:uid="{1C584AD9-072D-47B6-9850-2B2B13566F8E}"/>
-    <hyperlink ref="AJ5" r:id="rId59" xr:uid="{51A3EEF7-DF23-49EF-A700-A3064AD366F5}"/>
-    <hyperlink ref="AJ6" r:id="rId60" xr:uid="{DA530A75-1AA8-4F93-96B2-B20620563DA7}"/>
-    <hyperlink ref="AJ7" r:id="rId61" xr:uid="{4E74BD9C-CE85-4027-B8DA-6C5DD385830A}"/>
-    <hyperlink ref="AJ8" r:id="rId62" xr:uid="{93ED6EFE-9768-43BD-902F-FF54100E7596}"/>
-    <hyperlink ref="AJ9" r:id="rId63" xr:uid="{B80D7872-A434-48F5-AC56-49B4237BEF6F}"/>
-    <hyperlink ref="AR3" r:id="rId64" xr:uid="{F0D560AE-7837-4386-8871-C478BD8B2D15}"/>
-    <hyperlink ref="AR4" r:id="rId65" xr:uid="{0E63DCCD-0B14-453E-8251-1DF937F6C2ED}"/>
-    <hyperlink ref="AR5" r:id="rId66" xr:uid="{40EFF1C6-078A-4D36-9605-3AC4A800C3E9}"/>
-    <hyperlink ref="AR6" r:id="rId67" xr:uid="{F4E12EEC-DB4F-476E-81B8-8C46204F131E}"/>
-    <hyperlink ref="AR7" r:id="rId68" xr:uid="{3BDA4DE9-B4BA-4069-839D-1980F8FDAFD6}"/>
-    <hyperlink ref="AR8" r:id="rId69" xr:uid="{FF2C7332-D737-49DD-B530-0ADAE0CE32CF}"/>
-    <hyperlink ref="AR9" r:id="rId70" xr:uid="{576FCFAA-B3A2-485E-B43D-FAF7551AD9BA}"/>
-    <hyperlink ref="V9" r:id="rId71" xr:uid="{F191D211-9F11-4D96-947B-D8FDEEB10B11}"/>
-    <hyperlink ref="Y9" r:id="rId72" xr:uid="{9AD55243-CD84-4916-800B-59B1CB29B0BE}"/>
+    <hyperlink ref="AR5" r:id="rId1" xr:uid="{40EFF1C6-078A-4D36-9605-3AC4A800C3E9}"/>
+    <hyperlink ref="AR6" r:id="rId2" xr:uid="{F4E12EEC-DB4F-476E-81B8-8C46204F131E}"/>
+    <hyperlink ref="AR7" r:id="rId3" xr:uid="{3BDA4DE9-B4BA-4069-839D-1980F8FDAFD6}"/>
+    <hyperlink ref="AR8" r:id="rId4" xr:uid="{FF2C7332-D737-49DD-B530-0ADAE0CE32CF}"/>
+    <hyperlink ref="AR9" r:id="rId5" xr:uid="{576FCFAA-B3A2-485E-B43D-FAF7551AD9BA}"/>
+    <hyperlink ref="AR10" r:id="rId6" xr:uid="{8A63D1FA-9E88-4CD9-8207-F4625C37FC10}"/>
+    <hyperlink ref="V10" r:id="rId7" xr:uid="{A3A24461-ACC7-4DAF-B45A-9A24E9FD663F}"/>
+    <hyperlink ref="AJ10" r:id="rId8" xr:uid="{7806DA24-DB34-4AAB-B334-2B21809B409E}"/>
+    <hyperlink ref="AI10" r:id="rId9" xr:uid="{1A398502-040F-4B14-A85C-40C2416212A5}"/>
+    <hyperlink ref="AH10" r:id="rId10" xr:uid="{152B10EE-25AE-4FEE-A3BA-6A36CD0578E7}"/>
+    <hyperlink ref="AG10" r:id="rId11" xr:uid="{A4D32900-D8FF-43F8-BD68-F157AA2CC0A2}"/>
+    <hyperlink ref="AF10" r:id="rId12" xr:uid="{5EE3FA70-0C47-4EAD-AC55-8183CA9D2932}"/>
+    <hyperlink ref="AE10" r:id="rId13" xr:uid="{B21CC387-8226-4F3B-83A6-E82E278186E3}"/>
+    <hyperlink ref="Y10" r:id="rId14" xr:uid="{12D5D795-D933-48B6-ABF2-5BC6ABCD882C}"/>
+    <hyperlink ref="Y9" r:id="rId15" xr:uid="{9AD55243-CD84-4916-800B-59B1CB29B0BE}"/>
+    <hyperlink ref="V9" r:id="rId16" xr:uid="{F191D211-9F11-4D96-947B-D8FDEEB10B11}"/>
+    <hyperlink ref="AJ9" r:id="rId17" xr:uid="{B80D7872-A434-48F5-AC56-49B4237BEF6F}"/>
+    <hyperlink ref="AJ8" r:id="rId18" xr:uid="{93ED6EFE-9768-43BD-902F-FF54100E7596}"/>
+    <hyperlink ref="AJ7" r:id="rId19" xr:uid="{4E74BD9C-CE85-4027-B8DA-6C5DD385830A}"/>
+    <hyperlink ref="AJ6" r:id="rId20" xr:uid="{DA530A75-1AA8-4F93-96B2-B20620563DA7}"/>
+    <hyperlink ref="AJ5" r:id="rId21" xr:uid="{51A3EEF7-DF23-49EF-A700-A3064AD366F5}"/>
+    <hyperlink ref="AI9" r:id="rId22" xr:uid="{A040E809-93D5-4DB5-8C27-F89FE983F4F7}"/>
+    <hyperlink ref="AI8" r:id="rId23" xr:uid="{C5A2C1FF-DA7C-48F6-ABC6-5CE7398716C2}"/>
+    <hyperlink ref="AI7" r:id="rId24" xr:uid="{BCDCD13D-7DB2-483B-859D-DDBAFECFEDC4}"/>
+    <hyperlink ref="AI6" r:id="rId25" xr:uid="{DCC3FF5B-1CD3-42AB-8C71-662185AD31AA}"/>
+    <hyperlink ref="AI5" r:id="rId26" xr:uid="{CB0B1FA9-49C7-4453-B16C-E7EF6919D13C}"/>
+    <hyperlink ref="AH9" r:id="rId27" xr:uid="{113F7CF2-18F0-424B-B52B-04D2074B847D}"/>
+    <hyperlink ref="AH8" r:id="rId28" xr:uid="{3B09CF5A-F3A1-47D8-A4C7-95927B938F23}"/>
+    <hyperlink ref="AH7" r:id="rId29" xr:uid="{156284CF-760F-4820-9507-493220156796}"/>
+    <hyperlink ref="AH6" r:id="rId30" xr:uid="{721E1A15-264F-44DB-AAF2-3D15B2DFDF9C}"/>
+    <hyperlink ref="AH5" r:id="rId31" xr:uid="{C777DFA5-797D-4A93-9DB5-5682F02B535A}"/>
+    <hyperlink ref="AG9" r:id="rId32" xr:uid="{C9AC5D8F-2966-4603-8597-715A0788BD59}"/>
+    <hyperlink ref="AG8" r:id="rId33" xr:uid="{86BDAD11-F62C-4882-AED5-275E73419270}"/>
+    <hyperlink ref="AG7" r:id="rId34" xr:uid="{1972EE69-EF2A-4166-8083-F42C884907CD}"/>
+    <hyperlink ref="AG6" r:id="rId35" xr:uid="{11E02B18-0AFF-433F-BCDC-C809D8635B63}"/>
+    <hyperlink ref="AG5" r:id="rId36" xr:uid="{C54515BC-4766-4E81-ADA3-72E1367E89EB}"/>
+    <hyperlink ref="AF9" r:id="rId37" xr:uid="{FC4296D4-304B-4E12-A2BB-91B3E7C9CD1B}"/>
+    <hyperlink ref="AF8" r:id="rId38" xr:uid="{139BD8CB-10C3-4CB7-B48E-FAB1D00F19DB}"/>
+    <hyperlink ref="AF7" r:id="rId39" xr:uid="{877E1122-AC9E-4DB3-84E0-93A3A4DE8F1E}"/>
+    <hyperlink ref="AF6" r:id="rId40" xr:uid="{21F804D6-6090-4119-858A-2E12C2F4E102}"/>
+    <hyperlink ref="AF5" r:id="rId41" xr:uid="{6694FBAA-7B84-4724-9DDD-CFD621200630}"/>
+    <hyperlink ref="AE9" r:id="rId42" xr:uid="{70B00255-B7B0-47A6-A3A8-9D8C14A0144C}"/>
+    <hyperlink ref="AE8" r:id="rId43" xr:uid="{0EF0FCE8-C442-4A49-9A70-1C7172BAC725}"/>
+    <hyperlink ref="AE7" r:id="rId44" xr:uid="{2AA4F4CB-77E6-42A4-AE0C-FAEB20EB19BA}"/>
+    <hyperlink ref="AE6" r:id="rId45" xr:uid="{16CA8B98-568A-4473-9B70-4CBA5E28AE61}"/>
+    <hyperlink ref="AE5" r:id="rId46" xr:uid="{22EF5882-90F5-4233-92EC-874E08B74DE9}"/>
+    <hyperlink ref="Y8" r:id="rId47" xr:uid="{60BDA731-F231-451C-B1E1-8122B9A07416}"/>
+    <hyperlink ref="Y7" r:id="rId48" xr:uid="{2C91C5B8-446A-4F98-8FD0-0713A4C7421E}"/>
+    <hyperlink ref="Y6" r:id="rId49" xr:uid="{21387ACF-3007-4E0D-8F57-CDCA51BE542D}"/>
+    <hyperlink ref="Y5" r:id="rId50" xr:uid="{7EDEFECD-4A5E-45B8-BB8A-CD0E0946D98F}"/>
+    <hyperlink ref="V5" r:id="rId51" xr:uid="{AEDCC47E-0D78-42E4-A3D0-83939C740722}"/>
+    <hyperlink ref="V7" r:id="rId52" xr:uid="{C97A744D-EDBF-4922-9B48-60832D7B4D50}"/>
+    <hyperlink ref="V8" r:id="rId53" xr:uid="{1FB40691-6B58-48B8-9D05-503399CBF80A}"/>
+    <hyperlink ref="V6" r:id="rId54" xr:uid="{9359D4E3-CACA-47A7-9CC2-35C4A9AC7D03}"/>
+    <hyperlink ref="Y11" r:id="rId55" xr:uid="{CB1C2690-2D75-4DBE-9AE3-0C753E200F56}"/>
+    <hyperlink ref="Y12" r:id="rId56" xr:uid="{37C3E69C-0A50-4909-91DD-03AECB357267}"/>
+    <hyperlink ref="Y13" r:id="rId57" xr:uid="{D4099858-D816-4AE3-A579-4D18A4E733E3}"/>
+    <hyperlink ref="Y14" r:id="rId58" xr:uid="{57A21C4B-0CF4-495E-A701-C0EFFF20F58B}"/>
+    <hyperlink ref="AE11" r:id="rId59" xr:uid="{115E8B96-4499-4621-832F-F38B5FF5F1E5}"/>
+    <hyperlink ref="AE12" r:id="rId60" xr:uid="{374F3E00-9B08-4A7F-8C61-A1776D678E7A}"/>
+    <hyperlink ref="AE13" r:id="rId61" xr:uid="{ADDE819E-6C94-4005-9713-BC437CAE04C1}"/>
+    <hyperlink ref="AE14" r:id="rId62" xr:uid="{5F681696-253B-4718-800A-3F74B6B0ABBF}"/>
+    <hyperlink ref="AF11" r:id="rId63" xr:uid="{FA08CD03-87BC-4138-9DBC-679587925954}"/>
+    <hyperlink ref="AF12" r:id="rId64" xr:uid="{CA1C58CB-00C8-4C46-8D69-32CB4AAA06EE}"/>
+    <hyperlink ref="AF13" r:id="rId65" xr:uid="{743880BA-6282-461E-A730-E45D69C53182}"/>
+    <hyperlink ref="AF14" r:id="rId66" xr:uid="{41E4EF80-592D-4693-BB48-3E2863DAEC07}"/>
+    <hyperlink ref="AG11" r:id="rId67" xr:uid="{8F9BE48C-3577-4533-A495-EB27C2F0F9D2}"/>
+    <hyperlink ref="AG12" r:id="rId68" xr:uid="{48751073-92F7-4BDB-97D8-8DD57B1305B0}"/>
+    <hyperlink ref="AG13" r:id="rId69" xr:uid="{EAB95AA8-63AB-4BB7-A5BC-F83D713DE4C0}"/>
+    <hyperlink ref="AG14" r:id="rId70" xr:uid="{D298C582-7E8E-47F9-81FD-D8267B8E84E5}"/>
+    <hyperlink ref="AH11" r:id="rId71" xr:uid="{1616CF63-342A-473F-B3DB-C92F6FDFDE41}"/>
+    <hyperlink ref="AH12" r:id="rId72" xr:uid="{912B94A1-0BA3-4761-A0A3-BC33382FF40E}"/>
+    <hyperlink ref="AH13" r:id="rId73" xr:uid="{A1B38334-4F71-454D-9C1F-4D21B2081935}"/>
+    <hyperlink ref="AH14" r:id="rId74" xr:uid="{01D312EF-3002-4E0D-8150-AD4417144E38}"/>
+    <hyperlink ref="AI11" r:id="rId75" xr:uid="{065EA5C9-070E-44A2-A3D6-EA196030CE09}"/>
+    <hyperlink ref="AI12" r:id="rId76" xr:uid="{585A89D2-7A97-4838-9F50-3FC938B93066}"/>
+    <hyperlink ref="AI13" r:id="rId77" xr:uid="{5E209E9F-AB3B-44C1-AE4F-F7820119EB1A}"/>
+    <hyperlink ref="AI14" r:id="rId78" xr:uid="{4D786F31-42D7-414A-A8F4-EF08D21ECA2B}"/>
+    <hyperlink ref="AJ11" r:id="rId79" xr:uid="{345D63BA-F676-404B-83D2-320AA3499D9D}"/>
+    <hyperlink ref="AJ12" r:id="rId80" xr:uid="{538312FE-27C0-460A-98FA-87709A4164BD}"/>
+    <hyperlink ref="AJ13" r:id="rId81" xr:uid="{2C2BB42E-F01B-43DC-A7E0-75385FFFC520}"/>
+    <hyperlink ref="AJ14" r:id="rId82" xr:uid="{8815FAB7-6936-4EFF-83B9-DDAB3E2AFD1B}"/>
+    <hyperlink ref="V14" r:id="rId83" xr:uid="{133EEFA0-8A05-48F2-A360-0A0A2CC2DFAF}"/>
+    <hyperlink ref="V13" r:id="rId84" xr:uid="{3EE100DD-2920-445A-AD3A-FC74B7956842}"/>
+    <hyperlink ref="V12" r:id="rId85" xr:uid="{6A5CD97A-1C76-4A64-ACD1-5786E57973F4}"/>
+    <hyperlink ref="V11" r:id="rId86" xr:uid="{8EE879DB-D481-4125-BA8E-0444527AE46A}"/>
+    <hyperlink ref="AR14" r:id="rId87" xr:uid="{55E3848A-1F62-4DB8-8B37-2868DE7E7A95}"/>
+    <hyperlink ref="AR13" r:id="rId88" xr:uid="{3E8767B6-ABDC-490A-9F2B-3E7B0002E362}"/>
+    <hyperlink ref="AR12" r:id="rId89" xr:uid="{D4DBFBC5-BD6B-4286-BAE2-72706DF34B9F}"/>
+    <hyperlink ref="AR11" r:id="rId90" xr:uid="{C5FFF16D-E71A-4F7D-AF6B-C8843E820110}"/>
+    <hyperlink ref="Y15" r:id="rId91" xr:uid="{D6C759F7-4857-4FCD-B8C8-E1E403912A04}"/>
+    <hyperlink ref="AE15" r:id="rId92" xr:uid="{6A6B0EE2-D5BD-426D-83C5-19E00240E0D0}"/>
+    <hyperlink ref="AF15" r:id="rId93" xr:uid="{6991F988-FA73-43D3-A065-88F2BA4F5C01}"/>
+    <hyperlink ref="AG15" r:id="rId94" xr:uid="{7CF221DD-64D7-413E-8A85-B06AA57CE967}"/>
+    <hyperlink ref="AH15" r:id="rId95" xr:uid="{D80FFA51-55A3-4E5C-BE08-8E8DD52DFBA8}"/>
+    <hyperlink ref="AI15" r:id="rId96" xr:uid="{FA137C49-940D-4D01-9D4B-5E2537E9AA33}"/>
+    <hyperlink ref="AJ15" r:id="rId97" xr:uid="{77594D71-BD23-4D6B-A72A-EEAA423B741A}"/>
+    <hyperlink ref="V15" r:id="rId98" xr:uid="{C0DA6C11-788F-4923-BAD9-F1EF67DDD445}"/>
+    <hyperlink ref="AR15" r:id="rId99" xr:uid="{8C643867-EC2C-48F6-9187-6B53F1B9CAC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId100"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3941225-CA91-4B84-ADA8-77E2B762AB05}">
+  <dimension ref="C24:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="15"/>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
+++ b/cypress/fixtures/Excel Files/Club Data/ClubData.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Automations\cypress\fixtures\Excel Files\Club Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635DF51-8413-498F-827E-6D903C5D3732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -65,9 +59,6 @@
     <t>businessFileLocation</t>
   </si>
   <si>
-    <t>D:/Web Automations/cypress/fixtures/Files/img2.jpg</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
@@ -500,9 +491,6 @@
     <t>ヤマモト ハナコ</t>
   </si>
   <si>
-    <t>D:/Web Automations/cypress/fixtures/Files/kyc.pdf</t>
-  </si>
-  <si>
     <t>NebulaEmail@example.com</t>
   </si>
   <si>
@@ -588,13 +576,19 @@
   </si>
   <si>
     <t>Platinum Hosts</t>
+  </si>
+  <si>
+    <t>cypress/fixtures/Files/kyc.pdf</t>
+  </si>
+  <si>
+    <t>cypress/fixtures/Files/img2.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -705,9 +699,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,27 +913,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+    <sheetView tabSelected="1" topLeftCell="O13" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="3"/>
-    <col min="20" max="20" width="12.5703125" style="3"/>
-    <col min="23" max="27" width="12.5703125" style="3"/>
+    <col min="7" max="7" width="12.5546875" style="3"/>
+    <col min="20" max="20" width="12.5546875" style="3"/>
+    <col min="23" max="27" width="12.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -977,13 +971,13 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -992,183 +986,183 @@
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="21.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>1600021</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Z2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH2">
         <v>5000</v>
@@ -1192,114 +1186,114 @@
         <v>25</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="8">
         <v>1600021</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="AA3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH3">
         <v>5000</v>
@@ -1323,114 +1317,114 @@
         <v>25</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="8">
         <v>1600022</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="AB4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH4">
         <v>5000</v>
@@ -1454,114 +1448,114 @@
         <v>25</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="8">
         <v>1600023</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AA5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AE5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH5">
         <v>5000</v>
@@ -1585,114 +1579,114 @@
         <v>25</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="8">
         <v>1600024</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH6">
         <v>5000</v>
@@ -1716,114 +1710,114 @@
         <v>25</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="8">
         <v>1600025</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="AA7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH7">
         <v>5000</v>
@@ -1847,114 +1841,114 @@
         <v>25</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="8">
         <v>1600026</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="AA8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH8">
         <v>5000</v>
@@ -1978,114 +1972,114 @@
         <v>25</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" s="8">
         <v>1600026</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH9">
         <v>5000</v>
@@ -2109,114 +2103,114 @@
         <v>25</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="8">
         <v>1600026</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AA10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH10">
         <v>5000</v>
@@ -2240,114 +2234,114 @@
         <v>25</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" ht="15.75" customHeight="1">
       <c r="A11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" s="8">
         <v>1600026</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH11">
         <v>5000</v>
@@ -2371,114 +2365,114 @@
         <v>25</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" ht="15.75" customHeight="1">
       <c r="A12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="8">
         <v>1600026</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="AA12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH12">
         <v>5000</v>
@@ -2502,114 +2496,114 @@
         <v>25</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" ht="15.75" customHeight="1">
       <c r="A13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="C13" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="8">
         <v>1600026</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="AA13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH13">
         <v>5000</v>
@@ -2633,114 +2627,114 @@
         <v>25</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" ht="15.75" customHeight="1">
       <c r="A14" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="C14" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="8">
         <v>1600026</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH14">
         <v>5000</v>
@@ -2764,114 +2758,114 @@
         <v>25</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" ht="15.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="8">
         <v>1600026</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH15">
         <v>5000</v>
@@ -2895,114 +2889,114 @@
         <v>25</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP15" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" ht="15.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="8">
         <v>1600026</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD16" s="2" t="s">
+      <c r="AE16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH16">
         <v>5000</v>
@@ -3026,114 +3020,114 @@
         <v>25</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" ht="21.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1">
         <v>1600021</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Z17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AD17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH17">
         <v>5000</v>
@@ -3157,114 +3151,114 @@
         <v>25</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP17" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="21.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1">
         <v>1600021</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="U18" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y18" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Z18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AD18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AE18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH18">
         <v>5000</v>
@@ -3288,114 +3282,114 @@
         <v>25</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP18" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" ht="21.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1">
         <v>1600021</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y19" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="Z19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AD19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AE19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH19">
         <v>5000</v>
@@ -3419,114 +3413,114 @@
         <v>25</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP19" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H20" s="8">
         <v>1600024</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA20" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AD20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AE20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AF20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH20">
         <v>5000</v>
@@ -3550,114 +3544,114 @@
         <v>25</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP20" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="8">
         <v>1600022</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="AB21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH21">
         <v>5000</v>
@@ -3681,114 +3675,114 @@
         <v>25</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP21" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H22" s="8">
         <v>1600023</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z22" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AA22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AE22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AF22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH22">
         <v>5000</v>
@@ -3812,114 +3806,114 @@
         <v>25</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP22" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="8">
         <v>1600024</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="AA23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA23" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH23">
         <v>5000</v>
@@ -3943,114 +3937,114 @@
         <v>25</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP23" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="8">
         <v>1600025</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z24" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="AA24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AD24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD24" s="2" t="s">
+      <c r="AE24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AF24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH24">
         <v>5000</v>
@@ -4074,114 +4068,114 @@
         <v>25</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP24" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="8">
         <v>1600026</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U25" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="V25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z25" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="AA25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AD25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH25">
         <v>5000</v>
@@ -4205,114 +4199,114 @@
         <v>25</v>
       </c>
       <c r="AO25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" s="8">
         <v>1600026</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W26" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AD26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AE26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AF26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH26">
         <v>5000</v>
@@ -4336,114 +4330,114 @@
         <v>25</v>
       </c>
       <c r="AO26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP26" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H27" s="8">
         <v>1600026</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z27" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AA27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AD27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="2" t="s">
+      <c r="AE27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AF27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH27">
         <v>5000</v>
@@ -4467,114 +4461,114 @@
         <v>25</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H28" s="8">
         <v>1600026</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W28" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z28" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="AA28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA28" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AD28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AE28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AF28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF28" s="2" t="s">
+      <c r="AG28" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH28">
         <v>5000</v>
@@ -4598,114 +4592,114 @@
         <v>25</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP28" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" s="8">
         <v>1600026</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z29" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="AA29" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AD29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AE29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AF29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG29" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH29">
         <v>5000</v>
@@ -4729,114 +4723,114 @@
         <v>25</v>
       </c>
       <c r="AO29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP29" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="8">
         <v>1600026</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="AA30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AD30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AE30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE30" s="2" t="s">
+      <c r="AF30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH30">
         <v>5000</v>
@@ -4860,114 +4854,114 @@
         <v>25</v>
       </c>
       <c r="AO30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP30" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ30" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H31" s="8">
         <v>1600026</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AD31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD31" s="2" t="s">
+      <c r="AE31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG31" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH31">
         <v>5000</v>
@@ -4991,114 +4985,114 @@
         <v>25</v>
       </c>
       <c r="AO31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP31" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="8">
         <v>1600026</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AD32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD32" s="2" t="s">
+      <c r="AE32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE32" s="2" t="s">
+      <c r="AF32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AF32" s="2" t="s">
+      <c r="AG32" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AH32">
         <v>5000</v>
@@ -5122,16 +5116,16 @@
         <v>25</v>
       </c>
       <c r="AO32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP32" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ32" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5154,7 +5148,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5177,7 +5171,7 @@
       <c r="T34" s="4"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5200,7 +5194,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5223,7 +5217,7 @@
       <c r="T36" s="4"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5246,7 +5240,7 @@
       <c r="T37" s="4"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5269,7 +5263,7 @@
       <c r="T38" s="4"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5292,7 +5286,7 @@
       <c r="T39" s="4"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5315,7 +5309,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5338,7 +5332,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5361,7 +5355,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5384,7 +5378,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5407,7 +5401,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5430,7 +5424,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5453,7 +5447,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5476,7 +5470,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5499,7 +5493,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5522,7 +5516,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5545,7 +5539,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5568,7 +5562,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5591,7 +5585,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5614,7 +5608,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5637,7 +5631,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5660,7 +5654,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5683,7 +5677,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5706,7 +5700,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5729,7 +5723,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5752,7 +5746,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5775,7 +5769,7 @@
       <c r="T60" s="4"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5798,7 +5792,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5821,7 +5815,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5844,7 +5838,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5867,7 +5861,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5890,7 +5884,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5913,7 +5907,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5936,7 +5930,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
@@ -5960,225 +5954,225 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AO5" r:id="rId1" xr:uid="{40EFF1C6-078A-4D36-9605-3AC4A800C3E9}"/>
-    <hyperlink ref="AO6" r:id="rId2" xr:uid="{F4E12EEC-DB4F-476E-81B8-8C46204F131E}"/>
-    <hyperlink ref="AO7" r:id="rId3" xr:uid="{3BDA4DE9-B4BA-4069-839D-1980F8FDAFD6}"/>
-    <hyperlink ref="AO8" r:id="rId4" xr:uid="{FF2C7332-D737-49DD-B530-0ADAE0CE32CF}"/>
-    <hyperlink ref="AO9" r:id="rId5" xr:uid="{576FCFAA-B3A2-485E-B43D-FAF7551AD9BA}"/>
-    <hyperlink ref="AO10" r:id="rId6" xr:uid="{8A63D1FA-9E88-4CD9-8207-F4625C37FC10}"/>
-    <hyperlink ref="U10" r:id="rId7" xr:uid="{A3A24461-ACC7-4DAF-B45A-9A24E9FD663F}"/>
-    <hyperlink ref="AG10" r:id="rId8" xr:uid="{7806DA24-DB34-4AAB-B334-2B21809B409E}"/>
-    <hyperlink ref="AF10" r:id="rId9" xr:uid="{1A398502-040F-4B14-A85C-40C2416212A5}"/>
-    <hyperlink ref="AE10" r:id="rId10" xr:uid="{152B10EE-25AE-4FEE-A3BA-6A36CD0578E7}"/>
-    <hyperlink ref="AD10" r:id="rId11" xr:uid="{A4D32900-D8FF-43F8-BD68-F157AA2CC0A2}"/>
-    <hyperlink ref="AC10" r:id="rId12" xr:uid="{5EE3FA70-0C47-4EAD-AC55-8183CA9D2932}"/>
-    <hyperlink ref="AB10" r:id="rId13" xr:uid="{B21CC387-8226-4F3B-83A6-E82E278186E3}"/>
-    <hyperlink ref="V10" r:id="rId14" xr:uid="{12D5D795-D933-48B6-ABF2-5BC6ABCD882C}"/>
-    <hyperlink ref="V9" r:id="rId15" xr:uid="{9AD55243-CD84-4916-800B-59B1CB29B0BE}"/>
-    <hyperlink ref="U9" r:id="rId16" xr:uid="{F191D211-9F11-4D96-947B-D8FDEEB10B11}"/>
-    <hyperlink ref="AG9" r:id="rId17" xr:uid="{B80D7872-A434-48F5-AC56-49B4237BEF6F}"/>
-    <hyperlink ref="AG8" r:id="rId18" xr:uid="{93ED6EFE-9768-43BD-902F-FF54100E7596}"/>
-    <hyperlink ref="AG7" r:id="rId19" xr:uid="{4E74BD9C-CE85-4027-B8DA-6C5DD385830A}"/>
-    <hyperlink ref="AG6" r:id="rId20" xr:uid="{DA530A75-1AA8-4F93-96B2-B20620563DA7}"/>
-    <hyperlink ref="AG5" r:id="rId21" xr:uid="{51A3EEF7-DF23-49EF-A700-A3064AD366F5}"/>
-    <hyperlink ref="AF9" r:id="rId22" xr:uid="{A040E809-93D5-4DB5-8C27-F89FE983F4F7}"/>
-    <hyperlink ref="AF8" r:id="rId23" xr:uid="{C5A2C1FF-DA7C-48F6-ABC6-5CE7398716C2}"/>
-    <hyperlink ref="AF7" r:id="rId24" xr:uid="{BCDCD13D-7DB2-483B-859D-DDBAFECFEDC4}"/>
-    <hyperlink ref="AF6" r:id="rId25" xr:uid="{DCC3FF5B-1CD3-42AB-8C71-662185AD31AA}"/>
-    <hyperlink ref="AF5" r:id="rId26" xr:uid="{CB0B1FA9-49C7-4453-B16C-E7EF6919D13C}"/>
-    <hyperlink ref="AE9" r:id="rId27" xr:uid="{113F7CF2-18F0-424B-B52B-04D2074B847D}"/>
-    <hyperlink ref="AE8" r:id="rId28" xr:uid="{3B09CF5A-F3A1-47D8-A4C7-95927B938F23}"/>
-    <hyperlink ref="AE7" r:id="rId29" xr:uid="{156284CF-760F-4820-9507-493220156796}"/>
-    <hyperlink ref="AE6" r:id="rId30" xr:uid="{721E1A15-264F-44DB-AAF2-3D15B2DFDF9C}"/>
-    <hyperlink ref="AE5" r:id="rId31" xr:uid="{C777DFA5-797D-4A93-9DB5-5682F02B535A}"/>
-    <hyperlink ref="AD9" r:id="rId32" xr:uid="{C9AC5D8F-2966-4603-8597-715A0788BD59}"/>
-    <hyperlink ref="AD8" r:id="rId33" xr:uid="{86BDAD11-F62C-4882-AED5-275E73419270}"/>
-    <hyperlink ref="AD7" r:id="rId34" xr:uid="{1972EE69-EF2A-4166-8083-F42C884907CD}"/>
-    <hyperlink ref="AD6" r:id="rId35" xr:uid="{11E02B18-0AFF-433F-BCDC-C809D8635B63}"/>
-    <hyperlink ref="AD5" r:id="rId36" xr:uid="{C54515BC-4766-4E81-ADA3-72E1367E89EB}"/>
-    <hyperlink ref="AC9" r:id="rId37" xr:uid="{FC4296D4-304B-4E12-A2BB-91B3E7C9CD1B}"/>
-    <hyperlink ref="AC8" r:id="rId38" xr:uid="{139BD8CB-10C3-4CB7-B48E-FAB1D00F19DB}"/>
-    <hyperlink ref="AC7" r:id="rId39" xr:uid="{877E1122-AC9E-4DB3-84E0-93A3A4DE8F1E}"/>
-    <hyperlink ref="AC6" r:id="rId40" xr:uid="{21F804D6-6090-4119-858A-2E12C2F4E102}"/>
-    <hyperlink ref="AC5" r:id="rId41" xr:uid="{6694FBAA-7B84-4724-9DDD-CFD621200630}"/>
-    <hyperlink ref="AB9" r:id="rId42" xr:uid="{70B00255-B7B0-47A6-A3A8-9D8C14A0144C}"/>
-    <hyperlink ref="AB8" r:id="rId43" xr:uid="{0EF0FCE8-C442-4A49-9A70-1C7172BAC725}"/>
-    <hyperlink ref="AB7" r:id="rId44" xr:uid="{2AA4F4CB-77E6-42A4-AE0C-FAEB20EB19BA}"/>
-    <hyperlink ref="AB6" r:id="rId45" xr:uid="{16CA8B98-568A-4473-9B70-4CBA5E28AE61}"/>
-    <hyperlink ref="AB5" r:id="rId46" xr:uid="{22EF5882-90F5-4233-92EC-874E08B74DE9}"/>
-    <hyperlink ref="V8" r:id="rId47" xr:uid="{60BDA731-F231-451C-B1E1-8122B9A07416}"/>
-    <hyperlink ref="V7" r:id="rId48" xr:uid="{2C91C5B8-446A-4F98-8FD0-0713A4C7421E}"/>
-    <hyperlink ref="V6" r:id="rId49" xr:uid="{21387ACF-3007-4E0D-8F57-CDCA51BE542D}"/>
-    <hyperlink ref="V5" r:id="rId50" xr:uid="{7EDEFECD-4A5E-45B8-BB8A-CD0E0946D98F}"/>
-    <hyperlink ref="U5" r:id="rId51" xr:uid="{AEDCC47E-0D78-42E4-A3D0-83939C740722}"/>
-    <hyperlink ref="U7" r:id="rId52" xr:uid="{C97A744D-EDBF-4922-9B48-60832D7B4D50}"/>
-    <hyperlink ref="U8" r:id="rId53" xr:uid="{1FB40691-6B58-48B8-9D05-503399CBF80A}"/>
-    <hyperlink ref="U6" r:id="rId54" xr:uid="{9359D4E3-CACA-47A7-9CC2-35C4A9AC7D03}"/>
-    <hyperlink ref="V11" r:id="rId55" xr:uid="{CB1C2690-2D75-4DBE-9AE3-0C753E200F56}"/>
-    <hyperlink ref="V12" r:id="rId56" xr:uid="{37C3E69C-0A50-4909-91DD-03AECB357267}"/>
-    <hyperlink ref="V13" r:id="rId57" xr:uid="{D4099858-D816-4AE3-A579-4D18A4E733E3}"/>
-    <hyperlink ref="V14" r:id="rId58" xr:uid="{57A21C4B-0CF4-495E-A701-C0EFFF20F58B}"/>
-    <hyperlink ref="AB11" r:id="rId59" xr:uid="{115E8B96-4499-4621-832F-F38B5FF5F1E5}"/>
-    <hyperlink ref="AB12" r:id="rId60" xr:uid="{374F3E00-9B08-4A7F-8C61-A1776D678E7A}"/>
-    <hyperlink ref="AB13" r:id="rId61" xr:uid="{ADDE819E-6C94-4005-9713-BC437CAE04C1}"/>
-    <hyperlink ref="AB14" r:id="rId62" xr:uid="{5F681696-253B-4718-800A-3F74B6B0ABBF}"/>
-    <hyperlink ref="AC11" r:id="rId63" xr:uid="{FA08CD03-87BC-4138-9DBC-679587925954}"/>
-    <hyperlink ref="AC12" r:id="rId64" xr:uid="{CA1C58CB-00C8-4C46-8D69-32CB4AAA06EE}"/>
-    <hyperlink ref="AC13" r:id="rId65" xr:uid="{743880BA-6282-461E-A730-E45D69C53182}"/>
-    <hyperlink ref="AC14" r:id="rId66" xr:uid="{41E4EF80-592D-4693-BB48-3E2863DAEC07}"/>
-    <hyperlink ref="AD11" r:id="rId67" xr:uid="{8F9BE48C-3577-4533-A495-EB27C2F0F9D2}"/>
-    <hyperlink ref="AD12" r:id="rId68" xr:uid="{48751073-92F7-4BDB-97D8-8DD57B1305B0}"/>
-    <hyperlink ref="AD13" r:id="rId69" xr:uid="{EAB95AA8-63AB-4BB7-A5BC-F83D713DE4C0}"/>
-    <hyperlink ref="AD14" r:id="rId70" xr:uid="{D298C582-7E8E-47F9-81FD-D8267B8E84E5}"/>
-    <hyperlink ref="AE11" r:id="rId71" xr:uid="{1616CF63-342A-473F-B3DB-C92F6FDFDE41}"/>
-    <hyperlink ref="AE12" r:id="rId72" xr:uid="{912B94A1-0BA3-4761-A0A3-BC33382FF40E}"/>
-    <hyperlink ref="AE13" r:id="rId73" xr:uid="{A1B38334-4F71-454D-9C1F-4D21B2081935}"/>
-    <hyperlink ref="AE14" r:id="rId74" xr:uid="{01D312EF-3002-4E0D-8150-AD4417144E38}"/>
-    <hyperlink ref="AF11" r:id="rId75" xr:uid="{065EA5C9-070E-44A2-A3D6-EA196030CE09}"/>
-    <hyperlink ref="AF12" r:id="rId76" xr:uid="{585A89D2-7A97-4838-9F50-3FC938B93066}"/>
-    <hyperlink ref="AF13" r:id="rId77" xr:uid="{5E209E9F-AB3B-44C1-AE4F-F7820119EB1A}"/>
-    <hyperlink ref="AF14" r:id="rId78" xr:uid="{4D786F31-42D7-414A-A8F4-EF08D21ECA2B}"/>
-    <hyperlink ref="AG11" r:id="rId79" xr:uid="{345D63BA-F676-404B-83D2-320AA3499D9D}"/>
-    <hyperlink ref="AG12" r:id="rId80" xr:uid="{538312FE-27C0-460A-98FA-87709A4164BD}"/>
-    <hyperlink ref="AG13" r:id="rId81" xr:uid="{2C2BB42E-F01B-43DC-A7E0-75385FFFC520}"/>
-    <hyperlink ref="AG14" r:id="rId82" xr:uid="{8815FAB7-6936-4EFF-83B9-DDAB3E2AFD1B}"/>
-    <hyperlink ref="U14" r:id="rId83" xr:uid="{133EEFA0-8A05-48F2-A360-0A0A2CC2DFAF}"/>
-    <hyperlink ref="U13" r:id="rId84" xr:uid="{3EE100DD-2920-445A-AD3A-FC74B7956842}"/>
-    <hyperlink ref="U12" r:id="rId85" xr:uid="{6A5CD97A-1C76-4A64-ACD1-5786E57973F4}"/>
-    <hyperlink ref="U11" r:id="rId86" xr:uid="{8EE879DB-D481-4125-BA8E-0444527AE46A}"/>
-    <hyperlink ref="AO14" r:id="rId87" xr:uid="{55E3848A-1F62-4DB8-8B37-2868DE7E7A95}"/>
-    <hyperlink ref="AO13" r:id="rId88" xr:uid="{3E8767B6-ABDC-490A-9F2B-3E7B0002E362}"/>
-    <hyperlink ref="AO12" r:id="rId89" xr:uid="{D4DBFBC5-BD6B-4286-BAE2-72706DF34B9F}"/>
-    <hyperlink ref="AO11" r:id="rId90" xr:uid="{C5FFF16D-E71A-4F7D-AF6B-C8843E820110}"/>
-    <hyperlink ref="V15" r:id="rId91" xr:uid="{D6C759F7-4857-4FCD-B8C8-E1E403912A04}"/>
-    <hyperlink ref="AB15" r:id="rId92" xr:uid="{6A6B0EE2-D5BD-426D-83C5-19E00240E0D0}"/>
-    <hyperlink ref="AC15" r:id="rId93" xr:uid="{6991F988-FA73-43D3-A065-88F2BA4F5C01}"/>
-    <hyperlink ref="AD15" r:id="rId94" xr:uid="{7CF221DD-64D7-413E-8A85-B06AA57CE967}"/>
-    <hyperlink ref="AE15" r:id="rId95" xr:uid="{D80FFA51-55A3-4E5C-BE08-8E8DD52DFBA8}"/>
-    <hyperlink ref="AF15" r:id="rId96" xr:uid="{FA137C49-940D-4D01-9D4B-5E2537E9AA33}"/>
-    <hyperlink ref="AG15" r:id="rId97" xr:uid="{77594D71-BD23-4D6B-A72A-EEAA423B741A}"/>
-    <hyperlink ref="U15" r:id="rId98" xr:uid="{C0DA6C11-788F-4923-BAD9-F1EF67DDD445}"/>
-    <hyperlink ref="AO15" r:id="rId99" xr:uid="{8C643867-EC2C-48F6-9187-6B53F1B9CAC0}"/>
-    <hyperlink ref="V16" r:id="rId100" xr:uid="{190EC651-3072-4BB5-84CC-33155BFD001B}"/>
-    <hyperlink ref="AB16" r:id="rId101" xr:uid="{CA961E53-EA3E-435B-A240-A1126730D95A}"/>
-    <hyperlink ref="AC16" r:id="rId102" xr:uid="{33EBEBC6-37B7-4640-98EE-E5E97CA2EA99}"/>
-    <hyperlink ref="AD16" r:id="rId103" xr:uid="{732F43C0-2EFA-4255-AA7F-ADA1100FBF02}"/>
-    <hyperlink ref="AE16" r:id="rId104" xr:uid="{21A205F8-FDFD-4485-B669-C04671FCF226}"/>
-    <hyperlink ref="AF16" r:id="rId105" xr:uid="{99398314-FBB4-49D9-A5D9-8B350077FAE9}"/>
-    <hyperlink ref="AG16" r:id="rId106" xr:uid="{983D8297-C25E-4F70-B52E-A019AC8669E4}"/>
-    <hyperlink ref="U16" r:id="rId107" xr:uid="{CB57943F-1A79-4962-8888-78BC64A9F2F0}"/>
-    <hyperlink ref="AO16" r:id="rId108" xr:uid="{85687FF0-2E1F-425B-A921-72984B35ADC8}"/>
-    <hyperlink ref="U18" r:id="rId109" xr:uid="{B1A6A7EB-5A1D-4773-908C-9950CB5450B5}"/>
-    <hyperlink ref="U17" r:id="rId110" xr:uid="{EEE6A8DE-6C6C-441E-9871-9599A885A1B9}"/>
-    <hyperlink ref="U19" r:id="rId111" xr:uid="{2ECB9450-DBEF-427E-BBE9-FE423C58F56F}"/>
-    <hyperlink ref="AO20" r:id="rId112" xr:uid="{C40B9E3A-1E7F-41D7-9181-CA3CF2B4B80E}"/>
-    <hyperlink ref="AG20" r:id="rId113" xr:uid="{B04821BD-439F-4D34-8803-BAF901F6E259}"/>
-    <hyperlink ref="AF20" r:id="rId114" xr:uid="{9AA4B6AC-0951-4FB3-9F1D-D3AE17F96F72}"/>
-    <hyperlink ref="AE20" r:id="rId115" xr:uid="{AA446749-EF56-4857-B241-00D3C4F64E69}"/>
-    <hyperlink ref="AD20" r:id="rId116" xr:uid="{6043DB74-CB11-4F36-84E6-B5096874901D}"/>
-    <hyperlink ref="AC20" r:id="rId117" xr:uid="{A71CF34D-F56F-452C-9E55-696CB52E8506}"/>
-    <hyperlink ref="AB20" r:id="rId118" xr:uid="{B393263A-87EC-413E-B39E-7D67A57B51B4}"/>
-    <hyperlink ref="V20" r:id="rId119" xr:uid="{E2ACEE6E-F202-42A9-AAD3-8F343EE277A7}"/>
-    <hyperlink ref="U20" r:id="rId120" xr:uid="{9D78CD32-0119-4375-B1EA-8254A71E55D9}"/>
-    <hyperlink ref="AO22" r:id="rId121" xr:uid="{593F7A2E-0C27-4D5C-90A6-97C12E1640F7}"/>
-    <hyperlink ref="AO23" r:id="rId122" xr:uid="{07522655-6F6C-4BC2-96E1-95EA9A0EB271}"/>
-    <hyperlink ref="AO24" r:id="rId123" xr:uid="{B201C3A5-5A40-47FE-A13F-0D193AFA1FD0}"/>
-    <hyperlink ref="AO25" r:id="rId124" xr:uid="{058BC5A7-C593-4571-91A2-8CEB6B6A90D2}"/>
-    <hyperlink ref="AO26" r:id="rId125" xr:uid="{F80ED64D-80FD-4130-95D5-266693E81E47}"/>
-    <hyperlink ref="AO27" r:id="rId126" xr:uid="{2E78D534-6F36-4DB7-9F4C-D0CEFECAB99D}"/>
-    <hyperlink ref="U27" r:id="rId127" xr:uid="{24E61BDD-C105-4A30-BF3C-F53A6566CFFB}"/>
-    <hyperlink ref="AG27" r:id="rId128" xr:uid="{3DF57714-4ACB-4FF4-A472-9D1D0E8354E2}"/>
-    <hyperlink ref="AF27" r:id="rId129" xr:uid="{12DE46DB-4490-4B27-8B8C-ABA9B6A531DE}"/>
-    <hyperlink ref="AE27" r:id="rId130" xr:uid="{67605C8D-D1EF-43DA-8A3A-D1FA86C066AD}"/>
-    <hyperlink ref="AD27" r:id="rId131" xr:uid="{C92D775A-3B02-438D-A9A6-F5AFB589879E}"/>
-    <hyperlink ref="AC27" r:id="rId132" xr:uid="{224BB229-413B-435D-9AD9-03BD87FA3D45}"/>
-    <hyperlink ref="AB27" r:id="rId133" xr:uid="{D708A046-F6D2-4AC7-9024-C47069FFAF1C}"/>
-    <hyperlink ref="V27" r:id="rId134" xr:uid="{869C7B68-CD65-48C9-B6C5-8FF42B185AA4}"/>
-    <hyperlink ref="V26" r:id="rId135" xr:uid="{45054A39-7EC8-4035-AF57-3479174D1E70}"/>
-    <hyperlink ref="U26" r:id="rId136" xr:uid="{DDC0F09F-9FFC-40A2-A64E-4A7B5DDDCF4D}"/>
-    <hyperlink ref="AG26" r:id="rId137" xr:uid="{06E142A3-4A08-4668-8F15-DB3A3D2BDD49}"/>
-    <hyperlink ref="AG25" r:id="rId138" xr:uid="{77189FB8-3150-4F86-A6F6-3DF1FCA214C2}"/>
-    <hyperlink ref="AG24" r:id="rId139" xr:uid="{472F43EF-61A4-4F9B-A489-807314BBE09E}"/>
-    <hyperlink ref="AG23" r:id="rId140" xr:uid="{60804386-6985-437D-A6CE-1FBC0BA9F551}"/>
-    <hyperlink ref="AG22" r:id="rId141" xr:uid="{1A7D8E31-67DF-4BC3-992E-16DA46020CE7}"/>
-    <hyperlink ref="AF26" r:id="rId142" xr:uid="{4C38D087-4717-4899-A028-007743C48B89}"/>
-    <hyperlink ref="AF25" r:id="rId143" xr:uid="{9B79297A-22C4-4F37-B248-1B21084F9BA3}"/>
-    <hyperlink ref="AF24" r:id="rId144" xr:uid="{62759411-6F93-4237-93F2-9CF5082C067F}"/>
-    <hyperlink ref="AF23" r:id="rId145" xr:uid="{A91BB340-CFE3-40CB-80FF-726D3B4F2822}"/>
-    <hyperlink ref="AF22" r:id="rId146" xr:uid="{2A0F0FAF-6DEE-4973-9CE3-03B7314F2194}"/>
-    <hyperlink ref="AE26" r:id="rId147" xr:uid="{78CF60A0-D4EA-4FA5-8E67-980E59D8C840}"/>
-    <hyperlink ref="AE25" r:id="rId148" xr:uid="{7EDAFB4A-2CBE-45E4-9667-42133EE7FDC9}"/>
-    <hyperlink ref="AE24" r:id="rId149" xr:uid="{94896E63-11B9-4518-9D43-66B2D3C012A4}"/>
-    <hyperlink ref="AE23" r:id="rId150" xr:uid="{4B132901-BDB2-4599-B4D5-326E4C8025D4}"/>
-    <hyperlink ref="AE22" r:id="rId151" xr:uid="{86F30A07-4A39-475A-BC91-3C7ECBD42B2F}"/>
-    <hyperlink ref="AD26" r:id="rId152" xr:uid="{FABC36CF-B763-4FE9-B351-D76D12EECBE5}"/>
-    <hyperlink ref="AD25" r:id="rId153" xr:uid="{86E4E3D0-CBEF-42B5-AD19-23B051458DD6}"/>
-    <hyperlink ref="AD24" r:id="rId154" xr:uid="{54E28BF4-54E0-4D01-B6A5-A66B47E64FA0}"/>
-    <hyperlink ref="AD23" r:id="rId155" xr:uid="{B10B097E-A2D4-425B-A15B-79EF687214ED}"/>
-    <hyperlink ref="AD22" r:id="rId156" xr:uid="{292960AB-E565-4A32-B751-E4F2CDB25080}"/>
-    <hyperlink ref="AC26" r:id="rId157" xr:uid="{95443936-AC5B-400E-B618-82968FF6E4B0}"/>
-    <hyperlink ref="AC25" r:id="rId158" xr:uid="{69505541-7E96-490F-B210-E41E1924924B}"/>
-    <hyperlink ref="AC24" r:id="rId159" xr:uid="{F69822B8-7CBA-4EFC-B72E-36CAA37089FA}"/>
-    <hyperlink ref="AC23" r:id="rId160" xr:uid="{F9B6A224-BC7A-4CBA-8AEA-25301F747F0D}"/>
-    <hyperlink ref="AC22" r:id="rId161" xr:uid="{7B3F5487-532E-48CA-ADE4-040452901ADD}"/>
-    <hyperlink ref="AB26" r:id="rId162" xr:uid="{62AE964E-8AE4-430F-B0E0-FEE701B27AE6}"/>
-    <hyperlink ref="AB25" r:id="rId163" xr:uid="{0EA15557-CEF7-40F1-8534-BBD4C22897B3}"/>
-    <hyperlink ref="AB24" r:id="rId164" xr:uid="{DA7F02C8-3223-4A86-8D08-6502328DB183}"/>
-    <hyperlink ref="AB23" r:id="rId165" xr:uid="{0536B173-F032-45C2-91A9-46A768D6F9C3}"/>
-    <hyperlink ref="AB22" r:id="rId166" xr:uid="{C27E8964-F574-464F-804C-7B2191AD767E}"/>
-    <hyperlink ref="V25" r:id="rId167" xr:uid="{64C920B3-93DD-49A8-BAE2-04E8F651C19A}"/>
-    <hyperlink ref="V24" r:id="rId168" xr:uid="{4EFEA489-0D6C-45D4-B27B-1282DCFC700A}"/>
-    <hyperlink ref="V23" r:id="rId169" xr:uid="{1D57A407-E5B2-4559-B728-FA0D4627E027}"/>
-    <hyperlink ref="V22" r:id="rId170" xr:uid="{EB6FD1D7-B8D2-4C8E-B49F-A0F96E6F81E1}"/>
-    <hyperlink ref="U22" r:id="rId171" xr:uid="{9301BB53-9E92-4CB3-A4D2-FDDD21095DB3}"/>
-    <hyperlink ref="U24" r:id="rId172" xr:uid="{5CFEA948-1BAD-4014-A92C-7ADDD0CB7EEA}"/>
-    <hyperlink ref="U25" r:id="rId173" xr:uid="{098D06A8-08A7-4CDB-946C-262EE9975BFC}"/>
-    <hyperlink ref="U23" r:id="rId174" xr:uid="{E83AE6EA-7D3F-488A-85CE-3C7A148BBF34}"/>
-    <hyperlink ref="V28" r:id="rId175" xr:uid="{E2286A09-EDDF-4DDF-BA1E-6DAF0542F436}"/>
-    <hyperlink ref="V29" r:id="rId176" xr:uid="{B55D4670-A8DB-44CE-8967-2F39D9129521}"/>
-    <hyperlink ref="V30" r:id="rId177" xr:uid="{09CC2089-CA0F-494A-B7F0-C0AA8B06075B}"/>
-    <hyperlink ref="V31" r:id="rId178" xr:uid="{FFA2B854-C05D-4003-BA78-09AF2E71E8DF}"/>
-    <hyperlink ref="AB28" r:id="rId179" xr:uid="{BB488DA3-1983-457B-A37D-C0EC249535B1}"/>
-    <hyperlink ref="AB29" r:id="rId180" xr:uid="{96F99C7E-B274-4805-8C51-47817DAF3CED}"/>
-    <hyperlink ref="AB30" r:id="rId181" xr:uid="{A07A71E3-8CA7-4F7E-A2FC-6163630ECB6C}"/>
-    <hyperlink ref="AB31" r:id="rId182" xr:uid="{DEB69894-1AFD-426A-8FD5-7F2379131C94}"/>
-    <hyperlink ref="AC28" r:id="rId183" xr:uid="{EB0D64C1-988B-4C8D-A599-972B7DFFF8E8}"/>
-    <hyperlink ref="AC29" r:id="rId184" xr:uid="{00A7F359-1BD2-4FC5-A0D9-9B4EB892EB91}"/>
-    <hyperlink ref="AC30" r:id="rId185" xr:uid="{D95B7F8F-14BC-4088-A73D-0686F2587975}"/>
-    <hyperlink ref="AC31" r:id="rId186" xr:uid="{E9AED8FB-57ED-4B74-869A-B6F6E3A13548}"/>
-    <hyperlink ref="AD28" r:id="rId187" xr:uid="{1F0A7CBA-4B40-4594-B80D-2BC1C8B45B10}"/>
-    <hyperlink ref="AD29" r:id="rId188" xr:uid="{D89D1565-C4BF-4FAC-8646-8ED25582DBE6}"/>
-    <hyperlink ref="AD30" r:id="rId189" xr:uid="{C8C5CB23-AB82-4520-8675-8C4E334FDD39}"/>
-    <hyperlink ref="AD31" r:id="rId190" xr:uid="{79A7CF50-0659-4085-B1D6-0B98CA15B02E}"/>
-    <hyperlink ref="AE28" r:id="rId191" xr:uid="{6B9ECC7E-3706-4B47-9957-A8A4E4137130}"/>
-    <hyperlink ref="AE29" r:id="rId192" xr:uid="{8E7EF30C-23F3-4FF5-85EF-B46D029FF418}"/>
-    <hyperlink ref="AE30" r:id="rId193" xr:uid="{88800413-7A52-4EA1-9740-807557DE884F}"/>
-    <hyperlink ref="AE31" r:id="rId194" xr:uid="{4AD3A8A4-E88F-42BD-B70D-DD6E1A604ABF}"/>
-    <hyperlink ref="AF28" r:id="rId195" xr:uid="{7794BB9D-1D82-4A83-A1D6-BDB656E5ABE1}"/>
-    <hyperlink ref="AF29" r:id="rId196" xr:uid="{90B24284-8D90-481B-B3A8-5FB62E8AFE5A}"/>
-    <hyperlink ref="AF30" r:id="rId197" xr:uid="{6AFBD2B0-17A1-466B-96BC-08A9EB5BB732}"/>
-    <hyperlink ref="AF31" r:id="rId198" xr:uid="{7C49F00C-8426-49C6-9CB1-2B6B33AC7898}"/>
-    <hyperlink ref="AG28" r:id="rId199" xr:uid="{F8A3F608-ACCD-43E9-A6E4-6A76E2C52152}"/>
-    <hyperlink ref="AG29" r:id="rId200" xr:uid="{D03FCC63-542C-4A5A-8551-992B5CB77796}"/>
-    <hyperlink ref="AG30" r:id="rId201" xr:uid="{2FFA957A-E299-4D93-A39B-68379FD8D012}"/>
-    <hyperlink ref="AG31" r:id="rId202" xr:uid="{42FE7026-C5E5-4BD7-8ABF-052198B6882E}"/>
-    <hyperlink ref="U31" r:id="rId203" xr:uid="{96529692-C7FA-4B74-9D9C-B13EE31667C4}"/>
-    <hyperlink ref="U30" r:id="rId204" xr:uid="{EBD79A72-D607-441E-A404-7839551ECC97}"/>
-    <hyperlink ref="U29" r:id="rId205" xr:uid="{77D73066-6790-40FB-BC07-62C26B01D7E6}"/>
-    <hyperlink ref="U28" r:id="rId206" xr:uid="{C28144B8-A0AD-4D01-81AD-C2AFAD500528}"/>
-    <hyperlink ref="AO31" r:id="rId207" xr:uid="{A13CAE19-EE73-41F0-A410-0E926172A19C}"/>
-    <hyperlink ref="AO30" r:id="rId208" xr:uid="{5D144673-C782-4D6E-B80D-0791EC6F124E}"/>
-    <hyperlink ref="AO29" r:id="rId209" xr:uid="{40E5AEDE-65D9-4C68-B9DD-E47ABCC50914}"/>
-    <hyperlink ref="AO28" r:id="rId210" xr:uid="{2089111E-1672-4E74-A6D9-07E337430CCB}"/>
-    <hyperlink ref="V32" r:id="rId211" xr:uid="{F0C2AA8B-0188-4361-907F-BDA1E3AA2AD2}"/>
-    <hyperlink ref="AB32" r:id="rId212" xr:uid="{E25766C9-1C03-4181-9EC0-3F6A0ADD4727}"/>
-    <hyperlink ref="AC32" r:id="rId213" xr:uid="{82491F97-47D0-41DA-840A-AD4763FCE3A6}"/>
-    <hyperlink ref="AD32" r:id="rId214" xr:uid="{98EAD5A2-4E00-4D25-8941-3B649C6DF550}"/>
-    <hyperlink ref="AE32" r:id="rId215" xr:uid="{2537CB89-4AFB-4ED6-A54C-E50DECB40856}"/>
-    <hyperlink ref="AF32" r:id="rId216" xr:uid="{3B9E6606-E717-46F8-842D-63505C6564BC}"/>
-    <hyperlink ref="AG32" r:id="rId217" xr:uid="{230091A6-3F3D-4175-BC74-4BD0678E7331}"/>
-    <hyperlink ref="U32" r:id="rId218" xr:uid="{C5C654E2-2E5C-4F23-8918-4882B101E507}"/>
-    <hyperlink ref="AO32" r:id="rId219" xr:uid="{DC4FB5A4-E173-4111-8493-8433105F7123}"/>
+    <hyperlink ref="AO5" r:id="rId1"/>
+    <hyperlink ref="AO6" r:id="rId2"/>
+    <hyperlink ref="AO7" r:id="rId3"/>
+    <hyperlink ref="AO8" r:id="rId4"/>
+    <hyperlink ref="AO9" r:id="rId5"/>
+    <hyperlink ref="AO10" r:id="rId6"/>
+    <hyperlink ref="U10" r:id="rId7"/>
+    <hyperlink ref="AG10" r:id="rId8"/>
+    <hyperlink ref="AF10" r:id="rId9"/>
+    <hyperlink ref="AE10" r:id="rId10"/>
+    <hyperlink ref="AD10" r:id="rId11"/>
+    <hyperlink ref="AC10" r:id="rId12"/>
+    <hyperlink ref="AB10" r:id="rId13"/>
+    <hyperlink ref="V10" r:id="rId14"/>
+    <hyperlink ref="V9" r:id="rId15"/>
+    <hyperlink ref="U9" r:id="rId16"/>
+    <hyperlink ref="AG9" r:id="rId17"/>
+    <hyperlink ref="AG8" r:id="rId18"/>
+    <hyperlink ref="AG7" r:id="rId19"/>
+    <hyperlink ref="AG6" r:id="rId20"/>
+    <hyperlink ref="AG5" r:id="rId21"/>
+    <hyperlink ref="AF9" r:id="rId22"/>
+    <hyperlink ref="AF8" r:id="rId23"/>
+    <hyperlink ref="AF7" r:id="rId24"/>
+    <hyperlink ref="AF6" r:id="rId25"/>
+    <hyperlink ref="AF5" r:id="rId26"/>
+    <hyperlink ref="AE9" r:id="rId27"/>
+    <hyperlink ref="AE8" r:id="rId28"/>
+    <hyperlink ref="AE7" r:id="rId29"/>
+    <hyperlink ref="AE6" r:id="rId30"/>
+    <hyperlink ref="AE5" r:id="rId31"/>
+    <hyperlink ref="AD9" r:id="rId32"/>
+    <hyperlink ref="AD8" r:id="rId33"/>
+    <hyperlink ref="AD7" r:id="rId34"/>
+    <hyperlink ref="AD6" r:id="rId35"/>
+    <hyperlink ref="AD5" r:id="rId36"/>
+    <hyperlink ref="AC9" r:id="rId37"/>
+    <hyperlink ref="AC8" r:id="rId38"/>
+    <hyperlink ref="AC7" r:id="rId39"/>
+    <hyperlink ref="AC6" r:id="rId40"/>
+    <hyperlink ref="AC5" r:id="rId41"/>
+    <hyperlink ref="AB9" r:id="rId42"/>
+    <hyperlink ref="AB8" r:id="rId43"/>
+    <hyperlink ref="AB7" r:id="rId44"/>
+    <hyperlink ref="AB6" r:id="rId45"/>
+    <hyperlink ref="AB5" r:id="rId46"/>
+    <hyperlink ref="V8" r:id="rId47"/>
+    <hyperlink ref="V7" r:id="rId48"/>
+    <hyperlink ref="V6" r:id="rId49"/>
+    <hyperlink ref="V5" r:id="rId50"/>
+    <hyperlink ref="U5" r:id="rId51"/>
+    <hyperlink ref="U7" r:id="rId52"/>
+    <hyperlink ref="U8" r:id="rId53"/>
+    <hyperlink ref="U6" r:id="rId54"/>
+    <hyperlink ref="V11" r:id="rId55"/>
+    <hyperlink ref="V12" r:id="rId56"/>
+    <hyperlink ref="V13" r:id="rId57"/>
+    <hyperlink ref="V14" r:id="rId58"/>
+    <hyperlink ref="AB11" r:id="rId59"/>
+    <hyperlink ref="AB12" r:id="rId60"/>
+    <hyperlink ref="AB13" r:id="rId61"/>
+    <hyperlink ref="AB14" r:id="rId62"/>
+    <hyperlink ref="AC11" r:id="rId63"/>
+    <hyperlink ref="AC12" r:id="rId64"/>
+    <hyperlink ref="AC13" r:id="rId65"/>
+    <hyperlink ref="AC14" r:id="rId66"/>
+    <hyperlink ref="AD11" r:id="rId67"/>
+    <hyperlink ref="AD12" r:id="rId68"/>
+    <hyperlink ref="AD13" r:id="rId69"/>
+    <hyperlink ref="AD14" r:id="rId70"/>
+    <hyperlink ref="AE11" r:id="rId71"/>
+    <hyperlink ref="AE12" r:id="rId72"/>
+    <hyperlink ref="AE13" r:id="rId73"/>
+    <hyperlink ref="AE14" r:id="rId74"/>
+    <hyperlink ref="AF11" r:id="rId75"/>
+    <hyperlink ref="AF12" r:id="rId76"/>
+    <hyperlink ref="AF13" r:id="rId77"/>
+    <hyperlink ref="AF14" r:id="rId78"/>
+    <hyperlink ref="AG11" r:id="rId79"/>
+    <hyperlink ref="AG12" r:id="rId80"/>
+    <hyperlink ref="AG13" r:id="rId81"/>
+    <hyperlink ref="AG14" r:id="rId82"/>
+    <hyperlink ref="U14" r:id="rId83"/>
+    <hyperlink ref="U13" r:id="rId84"/>
+    <hyperlink ref="U12" r:id="rId85"/>
+    <hyperlink ref="U11" r:id="rId86"/>
+    <hyperlink ref="AO14" r:id="rId87"/>
+    <hyperlink ref="AO13" r:id="rId88"/>
+    <hyperlink ref="AO12" r:id="rId89"/>
+    <hyperlink ref="AO11" r:id="rId90"/>
+    <hyperlink ref="V15" r:id="rId91"/>
+    <hyperlink ref="AB15" r:id="rId92"/>
+    <hyperlink ref="AC15" r:id="rId93"/>
+    <hyperlink ref="AD15" r:id="rId94"/>
+    <hyperlink ref="AE15" r:id="rId95"/>
+    <hyperlink ref="AF15" r:id="rId96"/>
+    <hyperlink ref="AG15" r:id="rId97"/>
+    <hyperlink ref="U15" r:id="rId98"/>
+    <hyperlink ref="AO15" r:id="rId99"/>
+    <hyperlink ref="V16" r:id="rId100"/>
+    <hyperlink ref="AB16" r:id="rId101"/>
+    <hyperlink ref="AC16" r:id="rId102"/>
+    <hyperlink ref="AD16" r:id="rId103"/>
+    <hyperlink ref="AE16" r:id="rId104"/>
+    <hyperlink ref="AF16" r:id="rId105"/>
+    <hyperlink ref="AG16" r:id="rId106"/>
+    <hyperlink ref="U16" r:id="rId107"/>
+    <hyperlink ref="AO16" r:id="rId108"/>
+    <hyperlink ref="U18" r:id="rId109"/>
+    <hyperlink ref="U17" r:id="rId110"/>
+    <hyperlink ref="U19" r:id="rId111"/>
+    <hyperlink ref="AO20" r:id="rId112"/>
+    <hyperlink ref="AG20" r:id="rId113"/>
+    <hyperlink ref="AF20" r:id="rId114"/>
+    <hyperlink ref="AE20" r:id="rId115"/>
+    <hyperlink ref="AD20" r:id="rId116"/>
+    <hyperlink ref="AC20" r:id="rId117"/>
+    <hyperlink ref="AB20" r:id="rId118"/>
+    <hyperlink ref="V20" r:id="rId119"/>
+    <hyperlink ref="U20" r:id="rId120"/>
+    <hyperlink ref="AO22" r:id="rId121"/>
+    <hyperlink ref="AO23" r:id="rId122"/>
+    <hyperlink ref="AO24" r:id="rId123"/>
+    <hyperlink ref="AO25" r:id="rId124"/>
+    <hyperlink ref="AO26" r:id="rId125"/>
+    <hyperlink ref="AO27" r:id="rId126"/>
+    <hyperlink ref="U27" r:id="rId127"/>
+    <hyperlink ref="AG27" r:id="rId128"/>
+    <hyperlink ref="AF27" r:id="rId129"/>
+    <hyperlink ref="AE27" r:id="rId130"/>
+    <hyperlink ref="AD27" r:id="rId131"/>
+    <hyperlink ref="AC27" r:id="rId132"/>
+    <hyperlink ref="AB27" r:id="rId133"/>
+    <hyperlink ref="V27" r:id="rId134"/>
+    <hyperlink ref="V26" r:id="rId135"/>
+    <hyperlink ref="U26" r:id="rId136"/>
+    <hyperlink ref="AG26" r:id="rId137"/>
+    <hyperlink ref="AG25" r:id="rId138"/>
+    <hyperlink ref="AG24" r:id="rId139"/>
+    <hyperlink ref="AG23" r:id="rId140"/>
+    <hyperlink ref="AG22" r:id="rId141"/>
+    <hyperlink ref="AF26" r:id="rId142"/>
+    <hyperlink ref="AF25" r:id="rId143"/>
+    <hyperlink ref="AF24" r:id="rId144"/>
+    <hyperlink ref="AF23" r:id="rId145"/>
+    <hyperlink ref="AF22" r:id="rId146"/>
+    <hyperlink ref="AE26" r:id="rId147"/>
+    <hyperlink ref="AE25" r:id="rId148"/>
+    <hyperlink ref="AE24" r:id="rId149"/>
+    <hyperlink ref="AE23" r:id="rId150"/>
+    <hyperlink ref="AE22" r:id="rId151"/>
+    <hyperlink ref="AD26" r:id="rId152"/>
+    <hyperlink ref="AD25" r:id="rId153"/>
+    <hyperlink ref="AD24" r:id="rId154"/>
+    <hyperlink ref="AD23" r:id="rId155"/>
+    <hyperlink ref="AD22" r:id="rId156"/>
+    <hyperlink ref="AC26" r:id="rId157"/>
+    <hyperlink ref="AC25" r:id="rId158"/>
+    <hyperlink ref="AC24" r:id="rId159"/>
+    <hyperlink ref="AC23" r:id="rId160"/>
+    <hyperlink ref="AC22" r:id="rId161"/>
+    <hyperlink ref="AB26" r:id="rId162"/>
+    <hyperlink ref="AB25" r:id="rId163"/>
+    <hyperlink ref="AB24" r:id="rId164"/>
+    <hyperlink ref="AB23" r:id="rId165"/>
+    <hyperlink ref="AB22" r:id="rId166"/>
+    <hyperlink ref="V25" r:id="rId167"/>
+    <hyperlink ref="V24" r:id="rId168"/>
+    <hyperlink ref="V23" r:id="rId169"/>
+    <hyperlink ref="V22" r:id="rId170"/>
+    <hyperlink ref="U22" r:id="rId171"/>
+    <hyperlink ref="U24" r:id="rId172"/>
+    <hyperlink ref="U25" r:id="rId173"/>
+    <hyperlink ref="U23" r:id="rId174"/>
+    <hyperlink ref="V28" r:id="rId175"/>
+    <hyperlink ref="V29" r:id="rId176"/>
+    <hyperlink ref="V30" r:id="rId177"/>
+    <hyperlink ref="V31" r:id="rId178"/>
+    <hyperlink ref="AB28" r:id="rId179"/>
+    <hyperlink ref="AB29" r:id="rId180"/>
+    <hyperlink ref="AB30" r:id="rId181"/>
+    <hyperlink ref="AB31" r:id="rId182"/>
+    <hyperlink ref="AC28" r:id="rId183"/>
+    <hyperlink ref="AC29" r:id="rId184"/>
+    <hyperlink ref="AC30" r:id="rId185"/>
+    <hyperlink ref="AC31" r:id="rId186"/>
+    <hyperlink ref="AD28" r:id="rId187"/>
+    <hyperlink ref="AD29" r:id="rId188"/>
+    <hyperlink ref="AD30" r:id="rId189"/>
+    <hyperlink ref="AD31" r:id="rId190"/>
+    <hyperlink ref="AE28" r:id="rId191"/>
+    <hyperlink ref="AE29" r:id="rId192"/>
+    <hyperlink ref="AE30" r:id="rId193"/>
+    <hyperlink ref="AE31" r:id="rId194"/>
+    <hyperlink ref="AF28" r:id="rId195"/>
+    <hyperlink ref="AF29" r:id="rId196"/>
+    <hyperlink ref="AF30" r:id="rId197"/>
+    <hyperlink ref="AF31" r:id="rId198"/>
+    <hyperlink ref="AG28" r:id="rId199"/>
+    <hyperlink ref="AG29" r:id="rId200"/>
+    <hyperlink ref="AG30" r:id="rId201"/>
+    <hyperlink ref="AG31" r:id="rId202"/>
+    <hyperlink ref="U31" r:id="rId203"/>
+    <hyperlink ref="U30" r:id="rId204"/>
+    <hyperlink ref="U29" r:id="rId205"/>
+    <hyperlink ref="U28" r:id="rId206"/>
+    <hyperlink ref="AO31" r:id="rId207"/>
+    <hyperlink ref="AO30" r:id="rId208"/>
+    <hyperlink ref="AO29" r:id="rId209"/>
+    <hyperlink ref="AO28" r:id="rId210"/>
+    <hyperlink ref="V32" r:id="rId211"/>
+    <hyperlink ref="AB32" r:id="rId212"/>
+    <hyperlink ref="AC32" r:id="rId213"/>
+    <hyperlink ref="AD32" r:id="rId214"/>
+    <hyperlink ref="AE32" r:id="rId215"/>
+    <hyperlink ref="AF32" r:id="rId216"/>
+    <hyperlink ref="AG32" r:id="rId217"/>
+    <hyperlink ref="U32" r:id="rId218"/>
+    <hyperlink ref="AO32" r:id="rId219"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId220"/>
@@ -6186,22 +6180,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3941225-CA91-4B84-ADA8-77E2B762AB05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C24:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6">
       <c r="C24" s="14"/>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="15"/>
     </row>
